--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC651F-2BDB-4D10-982B-EA823855991A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1837896-28DF-4B41-A2A3-4DA355EA074D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +455,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -509,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,11 +585,14 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -731,20 +740,174 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC00FF"/>
+      <color rgb="FF9900FF"/>
+      <color rgb="FF6600FF"/>
+      <color rgb="FF993366"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF0000CC"/>
       <color rgb="FFCC0000"/>
       <color rgb="FF80FF21"/>
       <color rgb="FFE8F2E2"/>
-      <color rgb="FFDFF9E5"/>
-      <color rgb="FFFFE7E7"/>
-      <color rgb="FFFFBDBD"/>
-      <color rgb="FFFF7979"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1058,8 +1221,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC30" sqref="BC30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX26" sqref="AX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5164,51 +5327,54 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5221,8 +5387,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5312,7 +5478,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23">
+        <v>5</v>
+      </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC651F-2BDB-4D10-982B-EA823855991A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF483A50-4385-449F-8130-3A9E7C319F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC30" sqref="BC30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF24" s="18">
         <v>-2</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="BC24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF26" s="18">
         <v>-2</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C27" s="18">
         <v>-2</v>
@@ -2286,7 +2286,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F27" s="18">
         <v>-2</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="18">
         <v>-2</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q29" s="18">
         <v>-2</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AF29" s="18">
         <v>-2</v>
@@ -2653,10 +2653,10 @@
         <v>-2</v>
       </c>
       <c r="AH29" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AI29" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AJ29" s="18">
         <v>-2</v>
@@ -2665,10 +2665,10 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN29" s="18">
         <v>-2</v>
@@ -2680,7 +2680,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR29" s="18">
         <v>-2</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C30" s="18">
         <v>-2</v>
@@ -2706,7 +2706,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
         <v>-2</v>
@@ -2805,7 +2805,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="18">
         <v>-2</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="18">
         <v>-2</v>
@@ -2912,13 +2912,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AB31" s="18">
         <v>-2</v>
       </c>
       <c r="AC31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AD31" s="18">
         <v>-2</v>
@@ -2945,7 +2945,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="18">
         <v>-2</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="18">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Z32" s="18">
         <v>-2</v>
@@ -3064,7 +3064,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AF32" s="18">
         <v>-2</v>
@@ -3073,10 +3073,10 @@
         <v>-2</v>
       </c>
       <c r="AH32" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AI32" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AJ32" s="18">
         <v>-2</v>
@@ -3085,7 +3085,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="18">
         <v>-2</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="C33" s="18">
         <v>-2</v>
@@ -3126,7 +3126,7 @@
         <v>-2</v>
       </c>
       <c r="E33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>-2</v>
@@ -3192,43 +3192,43 @@
         <v>0</v>
       </c>
       <c r="AA33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AN33" s="18">
         <v>-2</v>
@@ -3237,13 +3237,13 @@
         <v>-2</v>
       </c>
       <c r="AP33" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AQ33" s="18">
         <v>-2</v>
       </c>
       <c r="AR33" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AS33" s="18">
         <v>-2</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C34" s="18">
         <v>-2</v>
@@ -3266,7 +3266,7 @@
         <v>-2</v>
       </c>
       <c r="E34" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>-2</v>
@@ -3332,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="AA34" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AB34" s="18">
         <v>-2</v>
       </c>
       <c r="AC34" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AD34" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AE34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AF34" s="18">
         <v>-2</v>
@@ -3356,7 +3356,7 @@
         <v>-2</v>
       </c>
       <c r="AI34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="18">
         <v>-2</v>
@@ -3368,7 +3368,7 @@
         <v>-2</v>
       </c>
       <c r="AM34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="18">
         <v>-2</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C37" s="18">
         <v>-2</v>
@@ -3686,7 +3686,7 @@
         <v>-2</v>
       </c>
       <c r="E37" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>-2</v>
@@ -5221,7 +5221,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF483A50-4385-449F-8130-3A9E7C319F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D600C8-3390-47AD-85A0-340794EBBDE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -641,6 +641,153 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1059,7 +1206,7 @@
   <dimension ref="A1:BC60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5164,50 +5311,50 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="14" priority="1">
+    <cfRule type="containsBlanks" dxfId="29" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5222,7 +5369,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1837896-28DF-4B41-A2A3-4DA355EA074D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A1F32-291F-4634-AA13-BAE7541D363C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -592,7 +592,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -675,21 +682,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -737,160 +744,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9999"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000CC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1221,8 +1074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX26" sqref="AX26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1557,7 +1410,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2093,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF24" s="18">
         <v>-2</v>
@@ -2145,7 +1998,7 @@
       </c>
       <c r="BC24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2258,7 +2111,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="18">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="18">
         <v>-2</v>
@@ -2292,7 +2145,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2387,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AF26" s="18">
         <v>-2</v>
@@ -2440,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C27" s="18">
         <v>-2</v>
@@ -2449,7 +2302,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F27" s="18">
         <v>-2</v>
@@ -2482,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="18">
         <v>-2</v>
@@ -2545,7 +2398,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="18">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AL27" s="18">
         <v>-2</v>
@@ -2762,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q29" s="18">
         <v>-2</v>
@@ -2807,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="AE29" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AF29" s="18">
         <v>-2</v>
       </c>
       <c r="AG29" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AH29" s="18">
         <v>-2</v>
       </c>
       <c r="AI29" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AJ29" s="18">
         <v>-2</v>
@@ -2828,10 +2681,10 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN29" s="18">
         <v>-2</v>
@@ -2843,7 +2696,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR29" s="18">
         <v>-2</v>
@@ -2860,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C30" s="18">
         <v>-2</v>
@@ -2869,7 +2722,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
         <v>-2</v>
@@ -2968,7 +2821,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="18">
         <v>-2</v>
@@ -3042,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="18">
         <v>-2</v>
@@ -3075,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AB31" s="18">
         <v>-2</v>
       </c>
       <c r="AC31" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AD31" s="18">
         <v>-2</v>
@@ -3108,7 +2961,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="18">
         <v>-2</v>
@@ -3191,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T32" s="18">
         <v>-2</v>
@@ -3200,7 +3053,7 @@
         <v>-2</v>
       </c>
       <c r="V32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="W32" s="18">
         <v>0</v>
@@ -3209,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="Z32" s="18">
         <v>-2</v>
@@ -3227,7 +3080,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AF32" s="18">
         <v>-2</v>
@@ -3236,10 +3089,10 @@
         <v>-2</v>
       </c>
       <c r="AH32" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AI32" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AJ32" s="18">
         <v>-2</v>
@@ -3248,7 +3101,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="18">
         <v>-2</v>
@@ -3280,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="C33" s="18">
         <v>-2</v>
@@ -3289,7 +3142,7 @@
         <v>-2</v>
       </c>
       <c r="E33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
         <v>-2</v>
@@ -3355,43 +3208,43 @@
         <v>0</v>
       </c>
       <c r="AA33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AN33" s="18">
         <v>-2</v>
@@ -3400,13 +3253,13 @@
         <v>-2</v>
       </c>
       <c r="AP33" s="18">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AQ33" s="18">
         <v>-2</v>
       </c>
       <c r="AR33" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="18">
         <v>-2</v>
@@ -3420,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C34" s="18">
         <v>-2</v>
@@ -3429,7 +3282,7 @@
         <v>-2</v>
       </c>
       <c r="E34" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>-2</v>
@@ -3495,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="AA34" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AB34" s="18">
         <v>-2</v>
       </c>
       <c r="AC34" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AD34" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AE34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AF34" s="18">
         <v>-2</v>
@@ -3519,7 +3372,7 @@
         <v>-2</v>
       </c>
       <c r="AI34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AJ34" s="18">
         <v>-2</v>
@@ -3531,7 +3384,7 @@
         <v>-2</v>
       </c>
       <c r="AM34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="18">
         <v>-2</v>
@@ -3543,7 +3396,7 @@
         <v>-2</v>
       </c>
       <c r="AQ34" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="18">
         <v>-2</v>
@@ -3840,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="C37" s="18">
         <v>-2</v>
@@ -3849,7 +3702,7 @@
         <v>-2</v>
       </c>
       <c r="E37" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>-2</v>
@@ -4055,7 +3908,7 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="18">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="18">
         <v>-1</v>
@@ -4225,7 +4078,7 @@
         <v>-1</v>
       </c>
       <c r="AK39" s="18">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AL39" s="18">
         <v>-1</v>
@@ -5327,53 +5180,53 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453A1F32-291F-4634-AA13-BAE7541D363C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883209C-93F8-45A2-A3F7-70A64B470C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:BC60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+      <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2105,7 +2105,7 @@
         <v>-2</v>
       </c>
       <c r="AI25" s="18">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AJ25" s="18">
         <v>-2</v>
@@ -2398,7 +2398,7 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="18">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="18">
         <v>-2</v>
@@ -3336,7 +3336,7 @@
         <v>-1</v>
       </c>
       <c r="W34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X34" s="18">
         <v>-1</v>
@@ -3768,7 +3768,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="18">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="AB37" s="18">
         <v>-1</v>
@@ -4078,7 +4078,7 @@
         <v>-1</v>
       </c>
       <c r="AK39" s="18">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AL39" s="18">
         <v>-1</v>
@@ -5240,7 +5240,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883209C-93F8-45A2-A3F7-70A64B470C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C249BADE-172C-47B5-A31D-1EDEFFBD522E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ25" sqref="AQ25"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>153</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1796,16 +1796,16 @@
         <v>-2</v>
       </c>
       <c r="AD23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="18">
         <v>-2</v>
@@ -1946,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AE24" s="18">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="18">
         <v>-2</v>
       </c>
       <c r="AG24" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="18">
         <v>-2</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="BC24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2084,13 +2084,13 @@
         <v>-2</v>
       </c>
       <c r="AB25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="18">
         <v>-2</v>
@@ -2099,13 +2099,13 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="18">
         <v>-2</v>
       </c>
       <c r="AI25" s="18">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AJ25" s="18">
         <v>-2</v>
@@ -2145,33 +2145,33 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I26" s="18">
         <v>-2</v>
@@ -2192,16 +2192,16 @@
         <v>-2</v>
       </c>
       <c r="O26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="18">
         <v>-2</v>
@@ -2237,16 +2237,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="18">
         <v>-2</v>
       </c>
       <c r="AG26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="18">
         <v>-2</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="18">
         <v>-2</v>
@@ -2302,7 +2302,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="18">
         <v>-2</v>
@@ -2311,7 +2311,7 @@
         <v>-2</v>
       </c>
       <c r="H27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="18">
         <v>-2</v>
@@ -2332,25 +2332,25 @@
         <v>-2</v>
       </c>
       <c r="O27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P27" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="18">
         <v>-2</v>
       </c>
       <c r="R27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="18">
         <v>-2</v>
@@ -2359,13 +2359,13 @@
         <v>-2</v>
       </c>
       <c r="X27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="18">
         <v>-2</v>
@@ -2377,60 +2377,60 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="18">
         <v>-2</v>
       </c>
       <c r="AF27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="18">
         <v>0</v>
       </c>
       <c r="AH27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="18">
         <v>-2</v>
@@ -2451,7 +2451,7 @@
         <v>-2</v>
       </c>
       <c r="H28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I28" s="18">
         <v>-2</v>
@@ -2472,7 +2472,7 @@
         <v>-2</v>
       </c>
       <c r="O28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="18">
         <v>-2</v>
@@ -2481,16 +2481,16 @@
         <v>-2</v>
       </c>
       <c r="R28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="18">
         <v>-2</v>
       </c>
       <c r="T28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V28" s="18">
         <v>-2</v>
@@ -2499,16 +2499,16 @@
         <v>-2</v>
       </c>
       <c r="X28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="Z28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="18">
         <v>-2</v>
@@ -2517,60 +2517,60 @@
         <v>-2</v>
       </c>
       <c r="AD28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="18">
         <v>0</v>
       </c>
       <c r="AG28" s="18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AK28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN28" s="18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO28" s="18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AP28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AS28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B29" s="18">
         <v>-2</v>
@@ -2591,7 +2591,7 @@
         <v>-2</v>
       </c>
       <c r="H29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" s="18">
         <v>-2</v>
@@ -2612,43 +2612,43 @@
         <v>-2</v>
       </c>
       <c r="O29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="R29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="S29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="T29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="W29" s="18">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="18">
         <v>22</v>
       </c>
-      <c r="Q29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="R29" s="18">
-        <v>0</v>
-      </c>
-      <c r="S29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="T29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="U29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="V29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="W29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="18">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="18">
-        <v>-2</v>
-      </c>
       <c r="Z29" s="18">
         <v>-2</v>
       </c>
       <c r="AA29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="18">
         <v>-2</v>
@@ -2657,22 +2657,22 @@
         <v>-2</v>
       </c>
       <c r="AD29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="18">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AH29" s="18">
         <v>-2</v>
       </c>
       <c r="AI29" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="18">
         <v>-2</v>
@@ -2681,10 +2681,10 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN29" s="18">
         <v>-2</v>
@@ -2696,7 +2696,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="18">
         <v>-2</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B30" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="18">
         <v>-2</v>
@@ -2722,7 +2722,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="18">
         <v>-2</v>
@@ -2731,7 +2731,7 @@
         <v>-2</v>
       </c>
       <c r="H30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="18">
         <v>-2</v>
@@ -2752,7 +2752,7 @@
         <v>-2</v>
       </c>
       <c r="O30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="18">
         <v>-2</v>
@@ -2761,7 +2761,7 @@
         <v>-2</v>
       </c>
       <c r="R30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S30" s="18">
         <v>-2</v>
@@ -2770,22 +2770,22 @@
         <v>-2</v>
       </c>
       <c r="U30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="18">
         <v>-2</v>
       </c>
       <c r="Z30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="18">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="18">
         <v>-2</v>
@@ -2821,7 +2821,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM30" s="18">
         <v>-2</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B31" s="18">
         <v>-2</v>
@@ -2871,7 +2871,7 @@
         <v>-2</v>
       </c>
       <c r="H31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="18">
         <v>-2</v>
@@ -2892,16 +2892,16 @@
         <v>-2</v>
       </c>
       <c r="O31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="18">
         <v>-2</v>
       </c>
       <c r="R31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S31" s="18">
         <v>-2</v>
@@ -2910,31 +2910,31 @@
         <v>-2</v>
       </c>
       <c r="U31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="W31" s="18">
         <v>-2</v>
       </c>
       <c r="X31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="18">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AB31" s="18">
         <v>-2</v>
       </c>
       <c r="AC31" s="18">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AD31" s="18">
         <v>-2</v>
@@ -2946,7 +2946,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AH31" s="18">
         <v>-2</v>
@@ -2958,10 +2958,10 @@
         <v>-2</v>
       </c>
       <c r="AK31" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AL31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM31" s="18">
         <v>-2</v>
@@ -2970,7 +2970,7 @@
         <v>-2</v>
       </c>
       <c r="AO31" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AP31" s="18">
         <v>-2</v>
@@ -2979,7 +2979,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS31" s="18">
         <v>-2</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="32" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" s="18">
         <v>-2</v>
@@ -3005,13 +3005,13 @@
         <v>-2</v>
       </c>
       <c r="F32" s="18">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="G32" s="18">
         <v>-2</v>
       </c>
       <c r="H32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="18">
         <v>-2</v>
@@ -3020,10 +3020,10 @@
         <v>-2</v>
       </c>
       <c r="K32" s="18">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M32" s="18">
         <v>-2</v>
@@ -3032,7 +3032,7 @@
         <v>-2</v>
       </c>
       <c r="O32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="18">
         <v>-2</v>
@@ -3041,28 +3041,28 @@
         <v>-2</v>
       </c>
       <c r="R32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="18">
         <v>-2</v>
       </c>
       <c r="U32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="18">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="18">
         <v>-2</v>
@@ -3080,7 +3080,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="18">
         <v>-2</v>
@@ -3089,10 +3089,10 @@
         <v>-2</v>
       </c>
       <c r="AH32" s="18">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="18">
         <v>-2</v>
@@ -3101,7 +3101,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="18">
         <v>-2</v>
@@ -3119,7 +3119,7 @@
         <v>-2</v>
       </c>
       <c r="AR32" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS32" s="18">
         <v>-2</v>
@@ -3133,22 +3133,22 @@
         <v>0</v>
       </c>
       <c r="B33" s="18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="18">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="18">
         <v>0</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="18">
         <v>0</v>
@@ -3193,58 +3193,58 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM33" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="18">
         <v>-2</v>
@@ -3253,13 +3253,13 @@
         <v>-2</v>
       </c>
       <c r="AP33" s="18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="18">
         <v>-2</v>
       </c>
       <c r="AR33" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="18">
         <v>-2</v>
@@ -3270,46 +3270,46 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" s="18">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="18">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="18">
-        <v>-2</v>
+        <v>91</v>
       </c>
       <c r="G34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="18">
         <v>-1</v>
       </c>
       <c r="J34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="18">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="L34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="N34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="18">
         <v>-1</v>
@@ -3330,37 +3330,37 @@
         <v>-1</v>
       </c>
       <c r="U34" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="18">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="X34" s="18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y34" s="18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z34" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA34" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AB34" s="18">
         <v>-2</v>
       </c>
       <c r="AC34" s="18">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AD34" s="18">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AE34" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AF34" s="18">
         <v>-2</v>
@@ -3372,7 +3372,7 @@
         <v>-2</v>
       </c>
       <c r="AI34" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AJ34" s="18">
         <v>-2</v>
@@ -3384,19 +3384,19 @@
         <v>-2</v>
       </c>
       <c r="AM34" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN34" s="18">
         <v>-2</v>
       </c>
       <c r="AO34" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AP34" s="18">
         <v>-2</v>
       </c>
       <c r="AQ34" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR34" s="18">
         <v>-2</v>
@@ -3410,28 +3410,28 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="18">
         <v>-1</v>
@@ -3473,25 +3473,25 @@
         <v>-1</v>
       </c>
       <c r="V35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="18">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="Y35" s="18">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z35" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA35" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AB35" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AC35" s="18">
         <v>-2</v>
@@ -3500,7 +3500,7 @@
         <v>-2</v>
       </c>
       <c r="AE35" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AF35" s="18">
         <v>-2</v>
@@ -3512,7 +3512,7 @@
         <v>-2</v>
       </c>
       <c r="AI35" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AJ35" s="18">
         <v>-2</v>
@@ -3524,7 +3524,7 @@
         <v>-2</v>
       </c>
       <c r="AM35" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN35" s="18">
         <v>-2</v>
@@ -3536,7 +3536,7 @@
         <v>-2</v>
       </c>
       <c r="AQ35" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR35" s="18">
         <v>-2</v>
@@ -3550,28 +3550,28 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="18">
         <v>-1</v>
@@ -3616,13 +3616,13 @@
         <v>-1</v>
       </c>
       <c r="W36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="18">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="18">
         <v>-2</v>
@@ -3690,28 +3690,28 @@
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37" s="18">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="18">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="18">
         <v>-1</v>
@@ -3768,13 +3768,13 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="18">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="18">
         <v>-1</v>
       </c>
       <c r="AC37" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="18">
         <v>0</v>
@@ -3830,28 +3830,28 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="18">
         <v>-1</v>
@@ -3899,7 +3899,7 @@
         <v>-1</v>
       </c>
       <c r="X38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="18">
         <v>-1</v>
@@ -3920,78 +3920,78 @@
         <v>0</v>
       </c>
       <c r="AE38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT38" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="18">
         <v>-1</v>
@@ -4057,81 +4057,81 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="18">
         <v>-1</v>
@@ -4173,7 +4173,7 @@
         <v>-1</v>
       </c>
       <c r="V40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="18">
         <v>-1</v>
@@ -4447,7 +4447,7 @@
         <v>-1</v>
       </c>
       <c r="T42" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="18">
         <v>-1</v>
@@ -5240,7 +5240,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C249BADE-172C-47B5-A31D-1EDEFFBD522E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91FD56-F67B-436E-88A3-E8227433531D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -439,12 +439,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5DB2FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +573,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -592,7 +592,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -747,20 +747,184 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB9EDFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000CC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFB9EDFF"/>
+      <color rgb="FF5DB2FF"/>
+      <color rgb="FFC2FADB"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFCC00FF"/>
       <color rgb="FF9900FF"/>
       <color rgb="FF6600FF"/>
       <color rgb="FF993366"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FF0000CC"/>
-      <color rgb="FFCC0000"/>
-      <color rgb="FF80FF21"/>
-      <color rgb="FFE8F2E2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1074,8 +1238,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5180,54 +5344,57 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="15" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5240,8 +5407,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5255,7 +5422,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>-3</v>
       </c>
       <c r="B2" t="s">
@@ -5331,7 +5498,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -5339,7 +5506,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23">
+        <v>6</v>
+      </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C249BADE-172C-47B5-A31D-1EDEFFBD522E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B356F66-0269-4667-A2D0-32664E9CBF61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1074,8 +1074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="P16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2261,7 +2261,7 @@
         <v>-2</v>
       </c>
       <c r="AL26" s="18">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AM26" s="18">
         <v>-2</v>
@@ -2341,7 +2341,7 @@
         <v>-2</v>
       </c>
       <c r="R27" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S27" s="18">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="W29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X29" s="18">
         <v>0</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AF29" s="18">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>-2</v>
       </c>
       <c r="S32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T32" s="18">
         <v>-2</v>
@@ -3774,7 +3774,7 @@
         <v>-1</v>
       </c>
       <c r="AC37" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD37" s="18">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>-1</v>
       </c>
       <c r="AL40" s="18">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AM40" s="18">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91FD56-F67B-436E-88A3-E8227433531D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA28B7-7AFF-4CD2-817C-6488B24828FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -592,7 +592,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FFB9EDFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -744,170 +754,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB9EDFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9EDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9999"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000CC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1238,8 +1084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ42" sqref="AJ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1574,7 +1420,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2309,7 +2155,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2410,13 +2256,13 @@
         <v>-2</v>
       </c>
       <c r="AG26" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH26" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="18">
         <v>-2</v>
@@ -2624,7 +2470,7 @@
         <v>-2</v>
       </c>
       <c r="K28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L28" s="18">
         <v>-2</v>
@@ -2764,7 +2610,7 @@
         <v>-2</v>
       </c>
       <c r="K29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="18">
         <v>-2</v>
@@ -2797,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="W29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X29" s="18">
         <v>0</v>
@@ -2815,16 +2661,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AC29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AF29" s="18">
         <v>0</v>
@@ -2904,7 +2750,7 @@
         <v>-2</v>
       </c>
       <c r="K30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L30" s="18">
         <v>-2</v>
@@ -3029,7 +2875,7 @@
         <v>-2</v>
       </c>
       <c r="F31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="18">
         <v>-2</v>
@@ -3044,7 +2890,7 @@
         <v>-2</v>
       </c>
       <c r="K31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="18">
         <v>-2</v>
@@ -3163,13 +3009,13 @@
         <v>-2</v>
       </c>
       <c r="D32" s="18">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="E32" s="18">
         <v>-2</v>
       </c>
       <c r="F32" s="18">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="18">
         <v>-2</v>
@@ -3184,22 +3030,22 @@
         <v>-2</v>
       </c>
       <c r="K32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="18">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="18">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="18">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="18">
         <v>2</v>
-      </c>
-      <c r="M32" s="18">
-        <v>-2</v>
-      </c>
-      <c r="N32" s="18">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="18">
-        <v>-2</v>
-      </c>
-      <c r="P32" s="18">
-        <v>-2</v>
       </c>
       <c r="Q32" s="18">
         <v>-2</v>
@@ -3315,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J33" s="18">
         <v>0</v>
@@ -3342,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="Q33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="18">
         <v>0</v>
@@ -3443,13 +3289,13 @@
         <v>-1</v>
       </c>
       <c r="D34" s="18">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="E34" s="18">
         <v>-1</v>
       </c>
       <c r="F34" s="18">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="18">
         <v>-1</v>
@@ -3461,31 +3307,31 @@
         <v>-1</v>
       </c>
       <c r="J34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="18">
         <v>2</v>
       </c>
       <c r="O34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="18">
         <v>-1</v>
@@ -3604,7 +3450,7 @@
         <v>-1</v>
       </c>
       <c r="K35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="18">
         <v>-1</v>
@@ -3744,7 +3590,7 @@
         <v>-1</v>
       </c>
       <c r="K36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="18">
         <v>-1</v>
@@ -3872,7 +3718,7 @@
         <v>-1</v>
       </c>
       <c r="G37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="18">
         <v>-1</v>
@@ -3884,7 +3730,7 @@
         <v>-1</v>
       </c>
       <c r="K37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="18">
         <v>-1</v>
@@ -4024,7 +3870,7 @@
         <v>-1</v>
       </c>
       <c r="K38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="18">
         <v>-1</v>
@@ -4063,7 +3909,7 @@
         <v>-1</v>
       </c>
       <c r="X38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y38" s="18">
         <v>-1</v>
@@ -4188,13 +4034,13 @@
         <v>-1</v>
       </c>
       <c r="S39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="18">
         <v>-1</v>
@@ -4331,13 +4177,13 @@
         <v>-1</v>
       </c>
       <c r="T40" s="18">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="U40" s="18">
         <v>-1</v>
       </c>
       <c r="V40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W40" s="18">
         <v>-1</v>
@@ -4519,7 +4365,7 @@
         <v>-1</v>
       </c>
       <c r="AJ41" s="18">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="AK41" s="18">
         <v>-1</v>
@@ -4611,7 +4457,7 @@
         <v>-1</v>
       </c>
       <c r="T42" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U42" s="18">
         <v>-1</v>
@@ -5344,56 +5190,56 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA28B7-7AFF-4CD2-817C-6488B24828FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70C9EF-D0E8-49C9-95B7-5552A38AA79F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1084,8 +1084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ42" sqref="AJ42"/>
+    <sheetView tabSelected="1" topLeftCell="P17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN38" sqref="AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1341,25 +1341,25 @@
         <v>-2</v>
       </c>
       <c r="V20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="18">
         <v>-2</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1488,25 +1488,25 @@
         <v>-2</v>
       </c>
       <c r="V21" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="X21" s="18">
         <v>-2</v>
       </c>
       <c r="Y21" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="Z21" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AA21" s="18">
         <v>-2</v>
       </c>
       <c r="AB21" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="18">
         <v>-2</v>
@@ -1635,7 +1635,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="18">
         <v>-2</v>
@@ -1653,7 +1653,7 @@
         <v>-2</v>
       </c>
       <c r="AB22" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="18">
         <v>-2</v>
@@ -1782,25 +1782,25 @@
         <v>-2</v>
       </c>
       <c r="V23" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="X23" s="18">
         <v>-2</v>
       </c>
       <c r="Y23" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="Z23" s="18">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AA23" s="18">
         <v>-2</v>
       </c>
       <c r="AB23" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="18">
         <v>-2</v>
@@ -1929,7 +1929,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="18">
         <v>-2</v>
@@ -1947,13 +1947,13 @@
         <v>-2</v>
       </c>
       <c r="AB24" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="18">
         <v>-2</v>
       </c>
       <c r="AD24" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="18">
         <v>0</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="BC24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2076,37 +2076,37 @@
         <v>-2</v>
       </c>
       <c r="V25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="18">
         <v>0</v>
       </c>
       <c r="AC25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="18">
         <v>-2</v>
       </c>
       <c r="AE25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="18">
         <v>-2</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2250,19 +2250,19 @@
         <v>-2</v>
       </c>
       <c r="AE26" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="18">
         <v>-2</v>
@@ -2354,13 +2354,13 @@
         <v>-2</v>
       </c>
       <c r="S27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V27" s="18">
         <v>-2</v>
@@ -2369,13 +2369,13 @@
         <v>-2</v>
       </c>
       <c r="X27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27" s="18">
         <v>-2</v>
@@ -2390,7 +2390,7 @@
         <v>-2</v>
       </c>
       <c r="AE27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="18">
         <v>0</v>
@@ -2399,43 +2399,43 @@
         <v>0</v>
       </c>
       <c r="AH27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2470,7 +2470,7 @@
         <v>-2</v>
       </c>
       <c r="K28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L28" s="18">
         <v>-2</v>
@@ -2497,10 +2497,10 @@
         <v>-2</v>
       </c>
       <c r="T28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28" s="18">
         <v>-2</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="18">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="18">
         <v>-2</v>
@@ -2530,52 +2530,52 @@
         <v>-2</v>
       </c>
       <c r="AE28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="18">
         <v>0</v>
       </c>
       <c r="AG28" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="18">
         <v>-2</v>
       </c>
       <c r="AJ28" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="18">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2610,7 +2610,7 @@
         <v>-2</v>
       </c>
       <c r="K29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L29" s="18">
         <v>-2</v>
@@ -2622,58 +2622,58 @@
         <v>-2</v>
       </c>
       <c r="O29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="18">
         <v>-2</v>
       </c>
       <c r="U29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="W29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y29" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Z29" s="18">
         <v>-2</v>
       </c>
       <c r="AA29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG29" s="18">
         <v>-2</v>
@@ -2688,10 +2688,10 @@
         <v>-2</v>
       </c>
       <c r="AK29" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AM29" s="18">
         <v>-2</v>
@@ -2700,13 +2700,13 @@
         <v>-2</v>
       </c>
       <c r="AO29" s="18">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AP29" s="18">
         <v>-2</v>
       </c>
       <c r="AQ29" s="18">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AR29" s="18">
         <v>-2</v>
@@ -2715,7 +2715,7 @@
         <v>-2</v>
       </c>
       <c r="AT29" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2750,7 +2750,7 @@
         <v>-2</v>
       </c>
       <c r="K30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L30" s="18">
         <v>-2</v>
@@ -2762,10 +2762,10 @@
         <v>-2</v>
       </c>
       <c r="O30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="18">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="18">
         <v>-2</v>
@@ -2774,22 +2774,22 @@
         <v>-2</v>
       </c>
       <c r="S30" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="18">
         <v>-2</v>
       </c>
       <c r="U30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="18">
         <v>-2</v>
@@ -2798,22 +2798,22 @@
         <v>-2</v>
       </c>
       <c r="AA30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="18">
         <v>-2</v>
@@ -2875,7 +2875,7 @@
         <v>-2</v>
       </c>
       <c r="F31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="18">
         <v>-2</v>
@@ -2890,7 +2890,7 @@
         <v>-2</v>
       </c>
       <c r="K31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="18">
         <v>-2</v>
@@ -2902,7 +2902,7 @@
         <v>-2</v>
       </c>
       <c r="O31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="18">
         <v>-2</v>
@@ -2914,16 +2914,16 @@
         <v>-2</v>
       </c>
       <c r="S31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="W31" s="18">
         <v>-2</v>
@@ -2932,7 +2932,7 @@
         <v>-2</v>
       </c>
       <c r="Y31" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="18">
         <v>-2</v>
@@ -2944,7 +2944,7 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="18">
         <v>-2</v>
@@ -2956,7 +2956,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="18">
         <v>-2</v>
@@ -2968,7 +2968,7 @@
         <v>-2</v>
       </c>
       <c r="AK31" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AL31" s="18">
         <v>-2</v>
@@ -2980,7 +2980,7 @@
         <v>-2</v>
       </c>
       <c r="AO31" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AP31" s="18">
         <v>-2</v>
@@ -2989,7 +2989,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS31" s="18">
         <v>-2</v>
@@ -3003,13 +3003,13 @@
         <v>-2</v>
       </c>
       <c r="B32" s="18">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="C32" s="18">
         <v>-2</v>
       </c>
       <c r="D32" s="18">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="E32" s="18">
         <v>-2</v>
@@ -3030,7 +3030,7 @@
         <v>-2</v>
       </c>
       <c r="K32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="18">
         <v>-2</v>
@@ -3042,10 +3042,10 @@
         <v>-2</v>
       </c>
       <c r="O32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="18">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="18">
         <v>-2</v>
@@ -3054,13 +3054,13 @@
         <v>-2</v>
       </c>
       <c r="S32" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="T32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="18">
         <v>-2</v>
@@ -3129,7 +3129,7 @@
         <v>-2</v>
       </c>
       <c r="AR32" s="18">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AS32" s="18">
         <v>-2</v>
@@ -3155,31 +3155,31 @@
         <v>0</v>
       </c>
       <c r="F33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="18">
-        <v>-2</v>
-      </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
       <c r="N33" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="18">
         <v>0</v>
@@ -3203,70 +3203,70 @@
         <v>0</v>
       </c>
       <c r="V33" s="18">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="W33" s="18">
         <v>-2</v>
       </c>
       <c r="X33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="18">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="18">
         <v>-2</v>
       </c>
       <c r="AE33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="18">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="18">
         <v>-2</v>
       </c>
       <c r="AK33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AO33" s="18">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AP33" s="18">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AQ33" s="18">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR33" s="18">
         <v>-2</v>
@@ -3283,13 +3283,13 @@
         <v>-1</v>
       </c>
       <c r="B34" s="18">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="C34" s="18">
         <v>-1</v>
       </c>
       <c r="D34" s="18">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="18">
         <v>-1</v>
@@ -3301,37 +3301,37 @@
         <v>-1</v>
       </c>
       <c r="H34" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J34" s="18">
         <v>-1</v>
       </c>
       <c r="K34" s="18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L34" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="18">
         <v>-1</v>
       </c>
       <c r="N34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S34" s="18">
         <v>-1</v>
@@ -3340,67 +3340,67 @@
         <v>-1</v>
       </c>
       <c r="U34" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W34" s="18">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="X34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="18">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AP34" s="18">
         <v>-2</v>
@@ -3441,7 +3441,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="18">
         <v>-1</v>
@@ -3450,10 +3450,10 @@
         <v>-1</v>
       </c>
       <c r="K35" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="18">
         <v>-1</v>
@@ -3483,70 +3483,70 @@
         <v>-1</v>
       </c>
       <c r="V35" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="18">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="Y35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="18">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="18">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="18">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="18">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="18">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="18">
         <v>-2</v>
       </c>
       <c r="AQ35" s="18">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR35" s="18">
         <v>-2</v>
@@ -3581,19 +3581,19 @@
         <v>-1</v>
       </c>
       <c r="H36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="18">
         <v>0</v>
       </c>
       <c r="L36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="18">
         <v>-1</v>
@@ -3626,64 +3626,64 @@
         <v>-1</v>
       </c>
       <c r="W36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="18">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AQ36" s="18">
         <v>-2</v>
@@ -3718,7 +3718,7 @@
         <v>-1</v>
       </c>
       <c r="G37" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="18">
         <v>-1</v>
@@ -3727,13 +3727,13 @@
         <v>-1</v>
       </c>
       <c r="J37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="18">
         <v>0</v>
       </c>
       <c r="L37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="18">
         <v>-1</v>
@@ -3745,22 +3745,22 @@
         <v>-1</v>
       </c>
       <c r="P37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="18">
         <v>-1</v>
@@ -3787,52 +3787,52 @@
         <v>-1</v>
       </c>
       <c r="AD37" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="18">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AR37" s="18">
         <v>-2</v>
       </c>
       <c r="AS37" s="18">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AT37" s="18">
         <v>-2</v>
@@ -3870,7 +3870,7 @@
         <v>-1</v>
       </c>
       <c r="K38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38" s="18">
         <v>-1</v>
@@ -3894,13 +3894,13 @@
         <v>-1</v>
       </c>
       <c r="S38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="18">
         <v>-1</v>
@@ -3927,55 +3927,55 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4034,7 +4034,7 @@
         <v>-1</v>
       </c>
       <c r="S39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T39" s="18">
         <v>0</v>
@@ -4067,55 +4067,55 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4177,7 +4177,7 @@
         <v>-1</v>
       </c>
       <c r="T40" s="18">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="U40" s="18">
         <v>-1</v>
@@ -4186,22 +4186,22 @@
         <v>-1</v>
       </c>
       <c r="W40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="18">
         <v>-1</v>
@@ -4326,16 +4326,16 @@
         <v>-1</v>
       </c>
       <c r="W41" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="18">
         <v>-1</v>
@@ -4365,7 +4365,7 @@
         <v>-1</v>
       </c>
       <c r="AJ41" s="18">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="AK41" s="18">
         <v>-1</v>
@@ -4466,13 +4466,13 @@
         <v>-1</v>
       </c>
       <c r="W42" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X42" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="18">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91FD56-F67B-436E-88A3-E8227433531D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E2ECF-EEDD-406A-80F3-DAE459D7CB92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -592,7 +592,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FFB9EDFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -744,170 +754,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB9EDFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9EDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF9999"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000CC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1239,7 +1085,7 @@
   <dimension ref="A1:BC60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+      <selection activeCell="AQ28" sqref="AQ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5344,56 +5190,56 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70C9EF-D0E8-49C9-95B7-5552A38AA79F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB98D2-22BB-40DB-8C31-E8FB59DE58A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1084,8 +1084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR28" sqref="AR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1341,25 +1341,25 @@
         <v>-2</v>
       </c>
       <c r="V20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB20" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC20" s="18">
         <v>-2</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1488,25 +1488,25 @@
         <v>-2</v>
       </c>
       <c r="V21" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W21" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="X21" s="18">
         <v>-2</v>
       </c>
       <c r="Y21" s="18">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="Z21" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AA21" s="18">
         <v>-2</v>
       </c>
       <c r="AB21" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC21" s="18">
         <v>-2</v>
@@ -1635,7 +1635,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W22" s="18">
         <v>-2</v>
@@ -1653,7 +1653,7 @@
         <v>-2</v>
       </c>
       <c r="AB22" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC22" s="18">
         <v>-2</v>
@@ -1782,25 +1782,25 @@
         <v>-2</v>
       </c>
       <c r="V23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W23" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="X23" s="18">
         <v>-2</v>
       </c>
       <c r="Y23" s="18">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="Z23" s="18">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AA23" s="18">
         <v>-2</v>
       </c>
       <c r="AB23" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC23" s="18">
         <v>-2</v>
@@ -1929,7 +1929,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W24" s="18">
         <v>-2</v>
@@ -1947,7 +1947,7 @@
         <v>-2</v>
       </c>
       <c r="AB24" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC24" s="18">
         <v>-2</v>
@@ -1956,7 +1956,7 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="18">
         <v>-2</v>
@@ -2076,25 +2076,25 @@
         <v>-2</v>
       </c>
       <c r="V25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC25" s="18">
         <v>-2</v>
@@ -2103,10 +2103,10 @@
         <v>-2</v>
       </c>
       <c r="AE25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF25" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG25" s="18">
         <v>-2</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2250,10 +2250,10 @@
         <v>-2</v>
       </c>
       <c r="AE26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG26" s="18">
         <v>-2</v>
@@ -2351,7 +2351,7 @@
         <v>-2</v>
       </c>
       <c r="R27" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="18">
         <v>-2</v>
@@ -2390,13 +2390,13 @@
         <v>-2</v>
       </c>
       <c r="AE27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG27" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="18">
         <v>-2</v>
@@ -2429,7 +2429,7 @@
         <v>-2</v>
       </c>
       <c r="AR27" s="18">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AS27" s="18">
         <v>-2</v>
@@ -2491,7 +2491,7 @@
         <v>-2</v>
       </c>
       <c r="R28" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="18">
         <v>-2</v>
@@ -2509,19 +2509,19 @@
         <v>-2</v>
       </c>
       <c r="X28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC28" s="18">
         <v>-2</v>
@@ -2530,16 +2530,16 @@
         <v>-2</v>
       </c>
       <c r="AE28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="18">
         <v>-2</v>
@@ -2872,7 +2872,7 @@
         <v>-2</v>
       </c>
       <c r="E31" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="18">
         <v>-2</v>
@@ -3009,10 +3009,10 @@
         <v>-2</v>
       </c>
       <c r="D32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F32" s="18">
         <v>-2</v>
@@ -3090,7 +3090,7 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AF32" s="18">
         <v>-2</v>
@@ -3102,7 +3102,7 @@
         <v>-2</v>
       </c>
       <c r="AI32" s="18">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="18">
         <v>-2</v>
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="18">
         <v>0</v>
@@ -3242,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="AI33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="18">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>-1</v>
       </c>
       <c r="AA34" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="18">
         <v>-1</v>
       </c>
       <c r="AC34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="18">
         <v>-1</v>
@@ -3376,7 +3376,7 @@
         <v>-1</v>
       </c>
       <c r="AG34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="18">
         <v>-1</v>
@@ -3388,7 +3388,7 @@
         <v>-1</v>
       </c>
       <c r="AK34" s="18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="18">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>-1</v>
       </c>
       <c r="AA35" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="18">
         <v>-1</v>
@@ -3638,7 +3638,7 @@
         <v>-1</v>
       </c>
       <c r="AA36" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="18">
         <v>-1</v>
@@ -3778,7 +3778,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="18">
         <v>-1</v>
@@ -3894,13 +3894,13 @@
         <v>-1</v>
       </c>
       <c r="S38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="18">
         <v>-1</v>
@@ -3918,7 +3918,7 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="18">
         <v>-1</v>
@@ -3930,16 +3930,16 @@
         <v>-1</v>
       </c>
       <c r="AE38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="18">
         <v>-1</v>
@@ -4037,10 +4037,10 @@
         <v>-1</v>
       </c>
       <c r="T39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U39" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="18">
         <v>-1</v>
@@ -4109,7 +4109,7 @@
         <v>-1</v>
       </c>
       <c r="AR39" s="18">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AS39" s="18">
         <v>-1</v>
@@ -4186,22 +4186,22 @@
         <v>-1</v>
       </c>
       <c r="W40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB40" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40" s="18">
         <v>-1</v>
@@ -4326,19 +4326,19 @@
         <v>-1</v>
       </c>
       <c r="W41" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X41" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y41" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z41" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA41" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="18">
         <v>-1</v>
@@ -4466,19 +4466,19 @@
         <v>-1</v>
       </c>
       <c r="W42" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X42" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z42" s="18">
         <v>-1</v>
       </c>
       <c r="AA42" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="18">
         <v>-1</v>
@@ -4618,7 +4618,7 @@
         <v>-1</v>
       </c>
       <c r="AA43" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="18">
         <v>-1</v>
@@ -4758,7 +4758,7 @@
         <v>-1</v>
       </c>
       <c r="AA44" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="18">
         <v>-1</v>
@@ -4898,7 +4898,7 @@
         <v>-1</v>
       </c>
       <c r="AA45" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="18">
         <v>-1</v>
@@ -5038,7 +5038,7 @@
         <v>-1</v>
       </c>
       <c r="AA46" s="18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="18">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32E2ECF-EEDD-406A-80F3-DAE459D7CB92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA8A754-79CB-42BE-90E8-6B5FFEFB186A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -303,6 +303,59 @@
     <t>左上</t>
     <rPh sb="0" eb="2">
       <t>ヒダリウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定項目</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景上</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景下</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埋ブロック</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -595,23 +648,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FFB9EDFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9EDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -667,6 +703,23 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB9EDFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1084,8 +1137,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ28" sqref="AQ28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5217,30 +5270,30 @@
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5251,10 +5304,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5262,44 +5315,65 @@
     <col min="1" max="1" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="21">
         <v>-3</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11">
         <v>-1</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G3" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="12">
         <v>-2</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5312,24 +5386,42 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="G6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -5342,8 +5434,11 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22">
         <v>5</v>
       </c>
@@ -5351,7 +5446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="23">
         <v>6</v>
       </c>
@@ -5359,7 +5454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -5370,7 +5465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -5381,7 +5476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -5392,7 +5487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="16">
         <v>21</v>
       </c>
@@ -5403,7 +5498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>22</v>
       </c>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E093E-6B12-4944-8E68-F4E5B4168133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B6A41-8DC3-49E4-9780-DA8607503CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1084,8 +1084,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2136,7 +2136,7 @@
         <v>-2</v>
       </c>
       <c r="AP25" s="23">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AQ25" s="23">
         <v>-2</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2280,7 +2280,7 @@
         <v>-2</v>
       </c>
       <c r="AO26" s="23">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AP26" s="23">
         <v>-2</v>
@@ -2649,7 +2649,7 @@
         <v>-2</v>
       </c>
       <c r="X29" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y29" s="23">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>-2</v>
       </c>
       <c r="X30" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="23">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>-2</v>
       </c>
       <c r="X31" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="23">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>-2</v>
       </c>
       <c r="AH32" s="23">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="23">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="23">
         <v>-2</v>
@@ -3227,10 +3227,10 @@
         <v>-2</v>
       </c>
       <c r="AD33" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="23">
         <v>1</v>
@@ -3239,10 +3239,10 @@
         <v>-2</v>
       </c>
       <c r="AH33" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="23">
         <v>1</v>
@@ -3364,11 +3364,11 @@
         <v>-1</v>
       </c>
       <c r="AC34" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD34" s="23">
         <v>2</v>
       </c>
-      <c r="AD34" s="23">
-        <v>-1</v>
-      </c>
       <c r="AE34" s="23">
         <v>-1</v>
       </c>
@@ -3376,19 +3376,19 @@
         <v>-1</v>
       </c>
       <c r="AG34" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH34" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI34" s="23">
         <v>2</v>
       </c>
-      <c r="AH34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI34" s="23">
-        <v>-1</v>
-      </c>
       <c r="AJ34" s="23">
         <v>-1</v>
       </c>
       <c r="AK34" s="23">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="23">
         <v>0</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542E81AD-820F-4E7D-B8DD-41E7584345C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67640B98-6A10-423B-8FFA-0D9BC43E6653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -718,23 +718,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FFB9EDFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB9EDFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -790,6 +773,23 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB9EDFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1207,8 +1207,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5236,9 +5236,6 @@
       <c r="D48"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -5256,14 +5253,15 @@
       <c r="D51"/>
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53"/>
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -5312,7 +5310,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A20:AT46">
+  <conditionalFormatting sqref="A20:BA48 A50:BA50 B49:BA49 A53">
     <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
@@ -5340,30 +5338,30 @@
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="between">
       <formula>11</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>97</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67640B98-6A10-423B-8FFA-0D9BC43E6653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37151A-5598-4DDD-96DB-1E1AC2059D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -585,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -619,17 +619,28 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -638,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,11 +722,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -880,10 +897,175 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB9EDFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFB9EDFF"/>
       <color rgb="FF5DB2FF"/>
       <color rgb="FFC2FADB"/>
@@ -892,7 +1074,6 @@
       <color rgb="FF9900FF"/>
       <color rgb="FF6600FF"/>
       <color rgb="FF993366"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
@@ -1207,8 +1388,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1235,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1243,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="10">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1401,154 +1582,160 @@
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="23">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>0</v>
       </c>
       <c r="BB20" t="s">
         <v>34</v>
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B21" s="23">
         <v>-2</v>
@@ -1684,6 +1871,12 @@
       </c>
       <c r="AT21" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>0</v>
       </c>
       <c r="BB21" t="s">
         <v>45</v>
@@ -1695,7 +1888,7 @@
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="23">
         <v>-2</v>
@@ -1831,6 +2024,12 @@
       </c>
       <c r="AT22" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU22" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV22" s="25">
+        <v>0</v>
       </c>
       <c r="BB22" t="s">
         <v>46</v>
@@ -1842,7 +2041,7 @@
     </row>
     <row r="23" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="23">
         <v>-2</v>
@@ -1978,6 +2177,12 @@
       </c>
       <c r="AT23" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU23" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>0</v>
       </c>
       <c r="BB23" t="s">
         <v>47</v>
@@ -1989,7 +2194,7 @@
     </row>
     <row r="24" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="23">
         <v>-2</v>
@@ -2079,16 +2284,16 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="23">
         <v>-2</v>
@@ -2125,18 +2330,24 @@
       </c>
       <c r="AT24" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>0</v>
       </c>
       <c r="BB24" t="s">
         <v>48</v>
       </c>
       <c r="BC24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="23">
         <v>-2</v>
@@ -2226,16 +2437,16 @@
         <v>-2</v>
       </c>
       <c r="AE25" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AG25" s="23">
         <v>-2</v>
       </c>
       <c r="AH25" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="23">
         <v>-2</v>
@@ -2272,18 +2483,24 @@
       </c>
       <c r="AT25" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>0</v>
       </c>
       <c r="BB25" t="s">
         <v>35</v>
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="23">
         <v>-2</v>
@@ -2373,7 +2590,7 @@
         <v>-2</v>
       </c>
       <c r="AE26" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="23">
         <v>-2</v>
@@ -2382,7 +2599,7 @@
         <v>-2</v>
       </c>
       <c r="AH26" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="23">
         <v>-2</v>
@@ -2419,35 +2636,41 @@
       </c>
       <c r="AT26" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J27" s="23">
         <v>-2</v>
@@ -2468,16 +2691,16 @@
         <v>-2</v>
       </c>
       <c r="P27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="23">
         <v>0</v>
       </c>
       <c r="S27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="23">
         <v>-2</v>
@@ -2513,16 +2736,16 @@
         <v>-2</v>
       </c>
       <c r="AE27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="23">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AG27" s="23">
         <v>-2</v>
       </c>
       <c r="AH27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="23">
         <v>-2</v>
@@ -2552,24 +2775,30 @@
         <v>-2</v>
       </c>
       <c r="AR27" s="23">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="23">
         <v>-2</v>
       </c>
       <c r="AT27" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="23">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="D28" s="23">
         <v>-2</v>
@@ -2578,7 +2807,7 @@
         <v>-2</v>
       </c>
       <c r="F28" s="23">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="G28" s="23">
         <v>-2</v>
@@ -2587,7 +2816,7 @@
         <v>-2</v>
       </c>
       <c r="I28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="23">
         <v>-2</v>
@@ -2608,16 +2837,16 @@
         <v>-2</v>
       </c>
       <c r="P28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="R28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="23">
         <v>-2</v>
@@ -2653,16 +2882,16 @@
         <v>-2</v>
       </c>
       <c r="AE28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AG28" s="23">
         <v>-2</v>
       </c>
       <c r="AH28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="23">
         <v>-2</v>
@@ -2671,42 +2900,48 @@
         <v>-2</v>
       </c>
       <c r="AK28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="23">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AM28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV28" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="23">
         <v>-2</v>
@@ -2727,7 +2962,7 @@
         <v>-2</v>
       </c>
       <c r="I29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="23">
         <v>-2</v>
@@ -2745,16 +2980,16 @@
         <v>-2</v>
       </c>
       <c r="O29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="23">
         <v>0</v>
       </c>
       <c r="Q29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="23">
         <v>0</v>
@@ -2793,7 +3028,7 @@
         <v>-2</v>
       </c>
       <c r="AE29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="23">
         <v>-2</v>
@@ -2802,51 +3037,57 @@
         <v>-2</v>
       </c>
       <c r="AH29" s="23">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AI29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="23">
         <v>0</v>
       </c>
       <c r="AL29" s="23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="23">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="23">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="23">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="23">
         <v>-2</v>
@@ -2867,7 +3108,7 @@
         <v>-2</v>
       </c>
       <c r="I30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J30" s="23">
         <v>-2</v>
@@ -2885,13 +3126,13 @@
         <v>-2</v>
       </c>
       <c r="O30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="23">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="R30" s="23">
         <v>-2</v>
@@ -2933,10 +3174,10 @@
         <v>-2</v>
       </c>
       <c r="AE30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="23">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AG30" s="23">
         <v>-2</v>
@@ -2948,7 +3189,7 @@
         <v>-2</v>
       </c>
       <c r="AJ30" s="23">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AK30" s="23">
         <v>-2</v>
@@ -2960,7 +3201,7 @@
         <v>-2</v>
       </c>
       <c r="AN30" s="23">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AO30" s="23">
         <v>-2</v>
@@ -2972,33 +3213,39 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="23">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AS30" s="23">
         <v>-2</v>
       </c>
       <c r="AT30" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV30" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="23">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="D31" s="23">
         <v>-2</v>
       </c>
       <c r="E31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="23">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="G31" s="23">
         <v>-2</v>
@@ -3007,7 +3254,7 @@
         <v>-2</v>
       </c>
       <c r="I31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="23">
         <v>-2</v>
@@ -3025,10 +3272,10 @@
         <v>-2</v>
       </c>
       <c r="O31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="23">
         <v>-2</v>
@@ -3040,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U31" s="23">
         <v>-2</v>
@@ -3061,19 +3308,19 @@
         <v>-2</v>
       </c>
       <c r="AA31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="23">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AF31" s="23">
         <v>-2</v>
@@ -3119,2123 +3366,2500 @@
       </c>
       <c r="AT31" s="23">
         <v>-2</v>
+      </c>
+      <c r="AU31" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B32" s="23">
+        <v>0</v>
+      </c>
+      <c r="C32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0</v>
+      </c>
+      <c r="J32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="K32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="L32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>22</v>
+      </c>
+      <c r="R32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="S32" s="23">
+        <v>0</v>
+      </c>
+      <c r="T32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="U32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="V32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="X32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="Y32" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="23">
+        <v>22</v>
+      </c>
+      <c r="AB32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AC32" s="23">
+        <v>22</v>
+      </c>
+      <c r="AD32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AE32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AF32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="23">
+        <v>0</v>
+      </c>
+      <c r="B33" s="23">
+        <v>0</v>
+      </c>
+      <c r="C33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I33" s="23">
+        <v>0</v>
+      </c>
+      <c r="J33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="K33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="L33" s="23">
         <v>90</v>
       </c>
-      <c r="C32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="G32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="H32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="I32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="J32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="K32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="L32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="M32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="N32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="23">
-        <v>0</v>
-      </c>
-      <c r="P32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="Q32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="R32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="S32" s="23">
+      <c r="M33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="N33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="O33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="R33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="S33" s="23">
+        <v>0</v>
+      </c>
+      <c r="T33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="U33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="V33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="W33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="X33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="23">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AA33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AB33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AC33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AE33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AF33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="23">
+        <v>0</v>
+      </c>
+      <c r="B34" s="23">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23">
+        <v>31</v>
+      </c>
+      <c r="D34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F34" s="23">
+        <v>31</v>
+      </c>
+      <c r="G34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I34" s="23">
+        <v>0</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23">
+        <v>0</v>
+      </c>
+      <c r="T34" s="23">
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
+        <v>0</v>
+      </c>
+      <c r="V34" s="23">
+        <v>0</v>
+      </c>
+      <c r="W34" s="23">
+        <v>0</v>
+      </c>
+      <c r="X34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AB34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AC34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AE34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AF34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AH34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AK34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AN34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AQ34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS34" s="23">
+        <v>31</v>
+      </c>
+      <c r="AT34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23">
+        <v>0</v>
+      </c>
+      <c r="B35" s="23">
+        <v>0</v>
+      </c>
+      <c r="C35" s="23">
+        <v>33</v>
+      </c>
+      <c r="D35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F35" s="23">
+        <v>33</v>
+      </c>
+      <c r="G35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0</v>
+      </c>
+      <c r="J35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="23">
+        <v>91</v>
+      </c>
+      <c r="M35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="23">
+        <v>22</v>
+      </c>
+      <c r="AC35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD35" s="23">
+        <v>13</v>
+      </c>
+      <c r="AE35" s="23">
+        <v>13</v>
+      </c>
+      <c r="AF35" s="23">
+        <v>44</v>
+      </c>
+      <c r="AG35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ35" s="23">
+        <v>44</v>
+      </c>
+      <c r="AK35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN35" s="23">
+        <v>44</v>
+      </c>
+      <c r="AO35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR35" s="23">
+        <v>44</v>
+      </c>
+      <c r="AS35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="23">
+        <v>0</v>
+      </c>
+      <c r="B36" s="23">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AC36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AE36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AF36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="23">
+        <v>0</v>
+      </c>
+      <c r="B37" s="23">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z37" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AE37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AF37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="23">
+        <v>0</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0</v>
+      </c>
+      <c r="C38" s="23">
+        <v>33</v>
+      </c>
+      <c r="D38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F38" s="23">
+        <v>33</v>
+      </c>
+      <c r="G38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="23">
         <v>11</v>
       </c>
-      <c r="T32" s="23">
-        <v>0</v>
-      </c>
-      <c r="U32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="V32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="W32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="X32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="Y32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="Z32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AA32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AB32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AC32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AD32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AE32" s="23">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AG32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AH32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AI32" s="23">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AK32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AL32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AM32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AN32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AO32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AP32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AQ32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AR32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS32" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AT32" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="23">
-        <v>0</v>
-      </c>
-      <c r="B33" s="23">
-        <v>0</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0</v>
-      </c>
-      <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-      <c r="F33" s="23">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23">
-        <v>-2</v>
-      </c>
-      <c r="H33" s="23">
-        <v>0</v>
-      </c>
-      <c r="I33" s="23">
-        <v>0</v>
-      </c>
-      <c r="J33" s="23">
-        <v>0</v>
-      </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
-      <c r="L33" s="23">
-        <v>0</v>
-      </c>
-      <c r="M33" s="23">
-        <v>1</v>
-      </c>
-      <c r="N33" s="23">
-        <v>-2</v>
-      </c>
-      <c r="O33" s="23">
-        <v>0</v>
-      </c>
-      <c r="P33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="23">
-        <v>0</v>
-      </c>
-      <c r="R33" s="23">
-        <v>0</v>
-      </c>
-      <c r="S33" s="23">
-        <v>0</v>
-      </c>
-      <c r="T33" s="23">
-        <v>0</v>
-      </c>
-      <c r="U33" s="23">
-        <v>0</v>
-      </c>
-      <c r="V33" s="23">
-        <v>1</v>
-      </c>
-      <c r="W33" s="23">
-        <v>-2</v>
-      </c>
-      <c r="X33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="23">
-        <v>11</v>
-      </c>
-      <c r="AO33" s="23">
-        <v>12</v>
-      </c>
-      <c r="AP33" s="23">
+      <c r="AF38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AL38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AR38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AU38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AV38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="23">
+        <v>0</v>
+      </c>
+      <c r="B39" s="23">
+        <v>0</v>
+      </c>
+      <c r="C39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="23">
+        <v>0</v>
+      </c>
+      <c r="B40" s="23">
+        <v>0</v>
+      </c>
+      <c r="C40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H40" s="23">
+        <v>-2</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL40" s="23">
+        <v>97</v>
+      </c>
+      <c r="AM40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="23">
+        <v>0</v>
+      </c>
+      <c r="B41" s="23">
+        <v>0</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="23">
+        <v>0</v>
+      </c>
+      <c r="B42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="23">
+        <v>0</v>
+      </c>
+      <c r="B43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="23">
+        <v>0</v>
+      </c>
+      <c r="B44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="23">
+        <v>0</v>
+      </c>
+      <c r="B45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="23">
+        <v>0</v>
+      </c>
+      <c r="B46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="23">
+        <v>0</v>
+      </c>
+      <c r="B47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="D47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="V47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="W47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="X47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Y47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="Z47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AA47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AC47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AD47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AE47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AF47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AG47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AH47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AI47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AJ47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AK47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AL47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AN47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AO47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AP47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AQ47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AR47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AS47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AT47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AU47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AV47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="24">
+        <v>0</v>
+      </c>
+      <c r="B48" s="24">
+        <v>0</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="D48" s="24">
+        <v>0</v>
+      </c>
+      <c r="E48" s="24">
+        <v>0</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <v>0</v>
+      </c>
+      <c r="J48" s="24">
+        <v>0</v>
+      </c>
+      <c r="K48" s="24">
+        <v>0</v>
+      </c>
+      <c r="L48" s="24">
+        <v>0</v>
+      </c>
+      <c r="M48" s="24">
+        <v>0</v>
+      </c>
+      <c r="N48" s="24">
+        <v>0</v>
+      </c>
+      <c r="O48" s="24">
+        <v>0</v>
+      </c>
+      <c r="P48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>0</v>
+      </c>
+      <c r="R48" s="24">
+        <v>0</v>
+      </c>
+      <c r="S48" s="24">
+        <v>0</v>
+      </c>
+      <c r="T48" s="24">
+        <v>0</v>
+      </c>
+      <c r="U48" s="24">
+        <v>0</v>
+      </c>
+      <c r="V48" s="24">
+        <v>0</v>
+      </c>
+      <c r="W48" s="24">
+        <v>0</v>
+      </c>
+      <c r="X48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="AQ33" s="23">
-        <v>44</v>
-      </c>
-      <c r="AR33" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS33" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AT33" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B34" s="23">
-        <v>91</v>
-      </c>
-      <c r="C34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="23">
-        <v>0</v>
-      </c>
-      <c r="I34" s="23">
-        <v>22</v>
-      </c>
-      <c r="J34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="23">
-        <v>12</v>
-      </c>
-      <c r="L34" s="23">
-        <v>0</v>
-      </c>
-      <c r="M34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC34" s="23">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG34" s="23">
-        <v>2</v>
-      </c>
-      <c r="AH34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ34" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK34" s="23">
-        <v>2</v>
-      </c>
-      <c r="AL34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AP34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AQ34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AR34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AT34" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="23">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="23">
-        <v>0</v>
-      </c>
-      <c r="M35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA35" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL35" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM35" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AQ35" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AR35" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS35" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AT35" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="23">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
-      <c r="L36" s="23">
-        <v>0</v>
-      </c>
-      <c r="M36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM36" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="23">
-        <v>11</v>
-      </c>
-      <c r="AQ36" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AR36" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS36" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AT36" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-      <c r="K37" s="23">
-        <v>0</v>
-      </c>
-      <c r="L37" s="23">
-        <v>0</v>
-      </c>
-      <c r="M37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P37" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>0</v>
-      </c>
-      <c r="R37" s="23">
-        <v>0</v>
-      </c>
-      <c r="S37" s="23">
-        <v>0</v>
-      </c>
-      <c r="T37" s="23">
-        <v>0</v>
-      </c>
-      <c r="U37" s="23">
-        <v>0</v>
-      </c>
-      <c r="V37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN37" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="23">
-        <v>21</v>
-      </c>
-      <c r="AR37" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS37" s="23">
-        <v>21</v>
-      </c>
-      <c r="AT37" s="23">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO38" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="23">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y39" s="23">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AB39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR39" s="23">
-        <v>97</v>
-      </c>
-      <c r="AS39" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT39" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AB40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS40" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT40" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA41" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS41" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT41" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA42" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS42" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT42" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA43" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS43" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT43" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA44" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS44" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT44" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="23">
-        <v>5</v>
-      </c>
-      <c r="R45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA45" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS45" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT45" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="B46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="C46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="D46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="I46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="J46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="N46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="O46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="P46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="R46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="S46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="T46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="U46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="V46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="W46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="X46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Y46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="Z46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AA46" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AC46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AD46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AE46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AF46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AG46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AH46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AI46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AJ46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AK46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AL46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AM46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AN46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AO46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AP46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AQ46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AR46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AS46" s="23">
-        <v>-1</v>
-      </c>
-      <c r="AT46" s="23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -5310,9 +5934,63 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A20:BA48 A50:BA50 B49:BA49 A53">
+  <conditionalFormatting sqref="A50:BA50 B49:BA49 A53 A20:BA48">
+    <cfRule type="containsBlanks" dxfId="33" priority="18">
+      <formula>LEN(TRIM(A20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="between">
+      <formula>11</formula>
+      <formula>49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+      <formula>97</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
     <cfRule type="containsBlanks" dxfId="16" priority="1">
-      <formula>LEN(TRIM(A20))=0</formula>
+      <formula>LEN(TRIM(A49))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>-3</formula>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67640B98-6A10-423B-8FFA-0D9BC43E6653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FF74E8-A220-4A11-A108-F9BBC44C81B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1207,8 +1207,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1275,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F8" s="10">
         <v>255</v>
@@ -1295,7 +1295,7 @@
         <v>255</v>
       </c>
       <c r="F9" s="10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
         <v>255</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E37151A-5598-4DDD-96DB-1E1AC2059D93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA59461-D8F1-46E1-B72A-DBA7FC64C907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1396,6 +1396,7 @@
   <cols>
     <col min="1" max="4" width="3.19921875" style="10" customWidth="1"/>
     <col min="5" max="46" width="3.19921875" customWidth="1"/>
+    <col min="49" max="49" width="3.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="3.69921875" customWidth="1"/>
     <col min="54" max="54" width="4.796875" bestFit="1" customWidth="1"/>
@@ -1416,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1424,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1722,7 +1723,13 @@
       <c r="AU20" s="23">
         <v>0</v>
       </c>
-      <c r="AV20" s="25">
+      <c r="AV20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="25">
         <v>0</v>
       </c>
       <c r="BB20" t="s">
@@ -1730,7 +1737,7 @@
       </c>
       <c r="BC20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1875,7 +1882,13 @@
       <c r="AU21" s="23">
         <v>-2</v>
       </c>
-      <c r="AV21" s="25">
+      <c r="AV21" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW21" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX21" s="25">
         <v>0</v>
       </c>
       <c r="BB21" t="s">
@@ -2028,7 +2041,13 @@
       <c r="AU22" s="23">
         <v>-2</v>
       </c>
-      <c r="AV22" s="25">
+      <c r="AV22" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW22" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX22" s="25">
         <v>0</v>
       </c>
       <c r="BB22" t="s">
@@ -2181,7 +2200,13 @@
       <c r="AU23" s="23">
         <v>-2</v>
       </c>
-      <c r="AV23" s="25">
+      <c r="AV23" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX23" s="25">
         <v>0</v>
       </c>
       <c r="BB23" t="s">
@@ -2284,7 +2309,7 @@
         <v>-2</v>
       </c>
       <c r="AE24" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="23">
         <v>0</v>
@@ -2296,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="23">
         <v>-2</v>
@@ -2334,7 +2359,13 @@
       <c r="AU24" s="23">
         <v>-2</v>
       </c>
-      <c r="AV24" s="25">
+      <c r="AV24" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX24" s="25">
         <v>0</v>
       </c>
       <c r="BB24" t="s">
@@ -2437,19 +2468,19 @@
         <v>-2</v>
       </c>
       <c r="AE25" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF25" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="23">
         <v>22</v>
       </c>
-      <c r="AG25" s="23">
-        <v>-2</v>
-      </c>
       <c r="AH25" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="23">
         <v>-2</v>
@@ -2487,7 +2518,13 @@
       <c r="AU25" s="23">
         <v>-2</v>
       </c>
-      <c r="AV25" s="25">
+      <c r="AV25" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW25" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX25" s="25">
         <v>0</v>
       </c>
       <c r="BB25" t="s">
@@ -2495,7 +2532,7 @@
       </c>
       <c r="BC25">
         <f>SUM(BC20:BC24)</f>
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2590,19 +2627,19 @@
         <v>-2</v>
       </c>
       <c r="AE26" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="23">
         <v>-2</v>
       </c>
       <c r="AH26" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="23">
         <v>-2</v>
@@ -2640,7 +2677,13 @@
       <c r="AU26" s="23">
         <v>-2</v>
       </c>
-      <c r="AV26" s="25">
+      <c r="AV26" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX26" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2673,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K27" s="23">
         <v>-2</v>
@@ -2691,7 +2734,7 @@
         <v>-2</v>
       </c>
       <c r="P27" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="23">
         <v>0</v>
@@ -2703,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="23">
         <v>-2</v>
@@ -2736,19 +2779,19 @@
         <v>-2</v>
       </c>
       <c r="AE27" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="23">
         <v>21</v>
       </c>
-      <c r="AG27" s="23">
-        <v>-2</v>
-      </c>
       <c r="AH27" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="23">
         <v>-2</v>
@@ -2786,7 +2829,13 @@
       <c r="AU27" s="23">
         <v>-2</v>
       </c>
-      <c r="AV27" s="25">
+      <c r="AV27" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX27" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2795,31 +2844,31 @@
         <v>0</v>
       </c>
       <c r="B28" s="23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="23">
         <v>33</v>
       </c>
-      <c r="D28" s="23">
-        <v>-2</v>
-      </c>
-      <c r="E28" s="23">
-        <v>-2</v>
-      </c>
       <c r="F28" s="23">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="G28" s="23">
         <v>-2</v>
       </c>
       <c r="H28" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="23">
         <v>-2</v>
@@ -2837,19 +2886,19 @@
         <v>-2</v>
       </c>
       <c r="P28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="23">
+        <v>0</v>
+      </c>
+      <c r="R28" s="23">
         <v>22</v>
       </c>
-      <c r="R28" s="23">
-        <v>-2</v>
-      </c>
       <c r="S28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="23">
         <v>-2</v>
@@ -2882,19 +2931,19 @@
         <v>-2</v>
       </c>
       <c r="AE28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="23">
         <v>22</v>
       </c>
-      <c r="AG28" s="23">
-        <v>-2</v>
-      </c>
       <c r="AH28" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="23">
         <v>-2</v>
@@ -2903,11 +2952,11 @@
         <v>-2</v>
       </c>
       <c r="AL28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM28" s="23">
         <v>97</v>
       </c>
-      <c r="AM28" s="23">
-        <v>-2</v>
-      </c>
       <c r="AN28" s="23">
         <v>-2</v>
       </c>
@@ -2932,7 +2981,13 @@
       <c r="AU28" s="23">
         <v>-2</v>
       </c>
-      <c r="AV28" s="25">
+      <c r="AV28" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW28" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX28" s="25">
         <v>0</v>
       </c>
     </row>
@@ -2941,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C29" s="23">
         <v>-2</v>
@@ -2962,10 +3017,10 @@
         <v>-2</v>
       </c>
       <c r="I29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="23">
         <v>-2</v>
@@ -2983,19 +3038,19 @@
         <v>-2</v>
       </c>
       <c r="P29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="23">
         <v>-2</v>
       </c>
       <c r="S29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="23">
         <v>-2</v>
@@ -3028,20 +3083,20 @@
         <v>-2</v>
       </c>
       <c r="AE29" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="23">
         <v>-2</v>
       </c>
       <c r="AH29" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AI29" s="23">
         <v>11</v>
       </c>
-      <c r="AI29" s="23">
-        <v>0</v>
-      </c>
       <c r="AJ29" s="23">
         <v>0</v>
       </c>
@@ -3078,7 +3133,13 @@
       <c r="AU29" s="23">
         <v>0</v>
       </c>
-      <c r="AV29" s="25">
+      <c r="AV29" s="23">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="23">
         <v>-2</v>
@@ -3105,13 +3166,13 @@
         <v>-2</v>
       </c>
       <c r="H30" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="23">
         <v>-2</v>
@@ -3129,19 +3190,19 @@
         <v>-2</v>
       </c>
       <c r="P30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q30" s="23">
+        <v>0</v>
+      </c>
+      <c r="R30" s="23">
         <v>22</v>
       </c>
-      <c r="R30" s="23">
-        <v>-2</v>
-      </c>
       <c r="S30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="23">
         <v>-2</v>
@@ -3174,14 +3235,14 @@
         <v>-2</v>
       </c>
       <c r="AE30" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="23">
         <v>44</v>
       </c>
-      <c r="AG30" s="23">
-        <v>-2</v>
-      </c>
       <c r="AH30" s="23">
         <v>-2</v>
       </c>
@@ -3189,11 +3250,11 @@
         <v>-2</v>
       </c>
       <c r="AJ30" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK30" s="23">
         <v>44</v>
       </c>
-      <c r="AK30" s="23">
-        <v>-2</v>
-      </c>
       <c r="AL30" s="23">
         <v>-2</v>
       </c>
@@ -3201,11 +3262,11 @@
         <v>-2</v>
       </c>
       <c r="AN30" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO30" s="23">
         <v>44</v>
       </c>
-      <c r="AO30" s="23">
-        <v>-2</v>
-      </c>
       <c r="AP30" s="23">
         <v>-2</v>
       </c>
@@ -3213,18 +3274,24 @@
         <v>-2</v>
       </c>
       <c r="AR30" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS30" s="23">
         <v>44</v>
       </c>
-      <c r="AS30" s="23">
-        <v>-2</v>
-      </c>
       <c r="AT30" s="23">
         <v>-2</v>
       </c>
       <c r="AU30" s="23">
         <v>-2</v>
       </c>
-      <c r="AV30" s="25">
+      <c r="AV30" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW30" s="25">
+        <v>13</v>
+      </c>
+      <c r="AX30" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3233,19 +3300,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C31" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E31" s="23">
         <v>33</v>
       </c>
-      <c r="D31" s="23">
-        <v>-2</v>
-      </c>
-      <c r="E31" s="23">
-        <v>-2</v>
-      </c>
       <c r="F31" s="23">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="23">
         <v>-2</v>
@@ -3254,10 +3321,10 @@
         <v>-2</v>
       </c>
       <c r="I31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="23">
         <v>-2</v>
@@ -3275,19 +3342,19 @@
         <v>-2</v>
       </c>
       <c r="P31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="23">
         <v>-2</v>
       </c>
       <c r="S31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="23">
         <v>-2</v>
@@ -3308,7 +3375,7 @@
         <v>-2</v>
       </c>
       <c r="AA31" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB31" s="23">
         <v>0</v>
@@ -3320,11 +3387,11 @@
         <v>0</v>
       </c>
       <c r="AE31" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="23">
         <v>13</v>
       </c>
-      <c r="AF31" s="23">
-        <v>-2</v>
-      </c>
       <c r="AG31" s="23">
         <v>-2</v>
       </c>
@@ -3370,7 +3437,13 @@
       <c r="AU31" s="23">
         <v>-2</v>
       </c>
-      <c r="AV31" s="25">
+      <c r="AV31" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW31" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX31" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3379,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="23">
         <v>-2</v>
@@ -3397,13 +3470,13 @@
         <v>-2</v>
       </c>
       <c r="H32" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I32" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="23">
         <v>-2</v>
@@ -3421,19 +3494,19 @@
         <v>-2</v>
       </c>
       <c r="P32" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="23">
+        <v>0</v>
+      </c>
+      <c r="R32" s="23">
         <v>22</v>
       </c>
-      <c r="R32" s="23">
-        <v>-2</v>
-      </c>
       <c r="S32" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="23">
         <v>-2</v>
@@ -3448,23 +3521,23 @@
         <v>-2</v>
       </c>
       <c r="Y32" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="23">
         <v>0</v>
       </c>
       <c r="AA32" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="23">
         <v>22</v>
       </c>
-      <c r="AB32" s="23">
-        <v>-2</v>
-      </c>
       <c r="AC32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD32" s="23">
         <v>22</v>
       </c>
-      <c r="AD32" s="23">
-        <v>-2</v>
-      </c>
       <c r="AE32" s="23">
         <v>-2</v>
       </c>
@@ -3516,16 +3589,22 @@
       <c r="AU32" s="23">
         <v>-2</v>
       </c>
-      <c r="AV32" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV32" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW32" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX32" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23">
         <v>0</v>
       </c>
       <c r="B33" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C33" s="23">
         <v>-2</v>
@@ -3546,20 +3625,20 @@
         <v>-2</v>
       </c>
       <c r="I33" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="23">
         <v>-2</v>
       </c>
       <c r="L33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="M33" s="23">
         <v>90</v>
       </c>
-      <c r="M33" s="23">
-        <v>-2</v>
-      </c>
       <c r="N33" s="23">
         <v>-2</v>
       </c>
@@ -3567,19 +3646,19 @@
         <v>-2</v>
       </c>
       <c r="P33" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="23">
         <v>-2</v>
       </c>
       <c r="S33" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="23">
         <v>-2</v>
@@ -3591,14 +3670,14 @@
         <v>-2</v>
       </c>
       <c r="X33" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="23">
         <v>21</v>
       </c>
-      <c r="Z33" s="23">
-        <v>-2</v>
-      </c>
       <c r="AA33" s="23">
         <v>-2</v>
       </c>
@@ -3662,174 +3741,186 @@
       <c r="AU33" s="23">
         <v>-2</v>
       </c>
-      <c r="AV33" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV33" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW33" s="25">
+        <v>13</v>
+      </c>
+      <c r="AX33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23">
         <v>0</v>
       </c>
       <c r="B34" s="23">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="23">
         <v>31</v>
       </c>
-      <c r="D34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="E34" s="23">
-        <v>-2</v>
-      </c>
       <c r="F34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="H34" s="23">
+        <v>22</v>
+      </c>
+      <c r="I34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>0</v>
+      </c>
+      <c r="R34" s="23">
+        <v>0</v>
+      </c>
+      <c r="S34" s="23">
+        <v>0</v>
+      </c>
+      <c r="T34" s="23">
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
+        <v>0</v>
+      </c>
+      <c r="V34" s="23">
+        <v>0</v>
+      </c>
+      <c r="W34" s="23">
+        <v>0</v>
+      </c>
+      <c r="X34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="23">
         <v>31</v>
       </c>
-      <c r="G34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="H34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="I34" s="23">
-        <v>0</v>
-      </c>
-      <c r="J34" s="23">
-        <v>0</v>
-      </c>
-      <c r="K34" s="23">
-        <v>0</v>
-      </c>
-      <c r="L34" s="23">
-        <v>0</v>
-      </c>
-      <c r="M34" s="23">
-        <v>0</v>
-      </c>
-      <c r="N34" s="23">
-        <v>0</v>
-      </c>
-      <c r="O34" s="23">
-        <v>0</v>
-      </c>
-      <c r="P34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="23">
-        <v>0</v>
-      </c>
-      <c r="R34" s="23">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23">
-        <v>0</v>
-      </c>
-      <c r="T34" s="23">
-        <v>0</v>
-      </c>
-      <c r="U34" s="23">
-        <v>0</v>
-      </c>
-      <c r="V34" s="23">
-        <v>0</v>
-      </c>
-      <c r="W34" s="23">
-        <v>0</v>
-      </c>
-      <c r="X34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="23">
+      <c r="AC34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AD34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AE34" s="23">
         <v>31</v>
       </c>
-      <c r="AB34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AC34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AD34" s="23">
+      <c r="AF34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AG34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AH34" s="23">
         <v>31</v>
       </c>
-      <c r="AE34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AF34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AG34" s="23">
+      <c r="AI34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AJ34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK34" s="23">
         <v>31</v>
       </c>
-      <c r="AH34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AI34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AJ34" s="23">
+      <c r="AL34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AM34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AN34" s="23">
         <v>31</v>
       </c>
-      <c r="AK34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AL34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AM34" s="23">
+      <c r="AO34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AP34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AQ34" s="23">
         <v>31</v>
       </c>
-      <c r="AN34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AO34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AP34" s="23">
+      <c r="AR34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AT34" s="23">
         <v>31</v>
       </c>
-      <c r="AQ34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AR34" s="23">
-        <v>-2</v>
-      </c>
-      <c r="AS34" s="23">
-        <v>31</v>
-      </c>
-      <c r="AT34" s="23">
-        <v>-2</v>
-      </c>
       <c r="AU34" s="23">
         <v>-2</v>
       </c>
-      <c r="AV34" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:48" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV34" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW34" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="23">
         <v>0</v>
       </c>
       <c r="B35" s="23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E35" s="23">
         <v>33</v>
       </c>
-      <c r="D35" s="23">
-        <v>-2</v>
-      </c>
-      <c r="E35" s="23">
-        <v>-2</v>
-      </c>
       <c r="F35" s="23">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="G35" s="23">
         <v>-2</v>
@@ -3838,20 +3929,20 @@
         <v>-2</v>
       </c>
       <c r="I35" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J35" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="23">
         <v>-1</v>
       </c>
       <c r="L35" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="23">
         <v>91</v>
       </c>
-      <c r="M35" s="23">
-        <v>-1</v>
-      </c>
       <c r="N35" s="23">
         <v>-1</v>
       </c>
@@ -3892,26 +3983,26 @@
         <v>-1</v>
       </c>
       <c r="AA35" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="23">
         <v>22</v>
       </c>
-      <c r="AC35" s="23">
-        <v>-2</v>
-      </c>
       <c r="AD35" s="23">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="23">
         <v>13</v>
       </c>
       <c r="AF35" s="23">
+        <v>13</v>
+      </c>
+      <c r="AG35" s="23">
         <v>44</v>
       </c>
-      <c r="AG35" s="23">
-        <v>-2</v>
-      </c>
       <c r="AH35" s="23">
         <v>-2</v>
       </c>
@@ -3919,11 +4010,11 @@
         <v>-2</v>
       </c>
       <c r="AJ35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AK35" s="23">
         <v>44</v>
       </c>
-      <c r="AK35" s="23">
-        <v>-2</v>
-      </c>
       <c r="AL35" s="23">
         <v>-2</v>
       </c>
@@ -3931,11 +4022,11 @@
         <v>-2</v>
       </c>
       <c r="AN35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AO35" s="23">
         <v>44</v>
       </c>
-      <c r="AO35" s="23">
-        <v>-2</v>
-      </c>
       <c r="AP35" s="23">
         <v>-2</v>
       </c>
@@ -3943,27 +4034,33 @@
         <v>-2</v>
       </c>
       <c r="AR35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AS35" s="23">
         <v>44</v>
       </c>
-      <c r="AS35" s="23">
-        <v>-2</v>
-      </c>
       <c r="AT35" s="23">
         <v>-2</v>
       </c>
       <c r="AU35" s="23">
         <v>-2</v>
       </c>
-      <c r="AV35" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV35" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW35" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="23">
         <v>0</v>
       </c>
       <c r="B36" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C36" s="23">
         <v>-2</v>
@@ -3981,13 +4078,13 @@
         <v>-2</v>
       </c>
       <c r="H36" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I36" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J36" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="23">
         <v>-1</v>
@@ -4038,10 +4135,10 @@
         <v>-1</v>
       </c>
       <c r="AA36" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="23">
         <v>-2</v>
@@ -4100,16 +4197,22 @@
       <c r="AU36" s="23">
         <v>-2</v>
       </c>
-      <c r="AV36" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV36" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW36" s="25">
+        <v>13</v>
+      </c>
+      <c r="AX36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="23">
         <v>0</v>
       </c>
       <c r="B37" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C37" s="23">
         <v>-2</v>
@@ -4130,10 +4233,10 @@
         <v>-2</v>
       </c>
       <c r="I37" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J37" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="23">
         <v>-1</v>
@@ -4184,7 +4287,7 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="23">
         <v>0</v>
@@ -4193,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="23">
         <v>-2</v>
@@ -4246,40 +4349,46 @@
       <c r="AU37" s="23">
         <v>-2</v>
       </c>
-      <c r="AV37" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV37" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW37" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23">
         <v>0</v>
       </c>
       <c r="B38" s="23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="23">
         <v>33</v>
       </c>
-      <c r="D38" s="23">
-        <v>-2</v>
-      </c>
-      <c r="E38" s="23">
-        <v>-2</v>
-      </c>
       <c r="F38" s="23">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="G38" s="23">
         <v>-2</v>
       </c>
       <c r="H38" s="23">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="I38" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J38" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="23">
         <v>-1</v>
@@ -4339,14 +4448,14 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="23">
         <v>11</v>
       </c>
-      <c r="AF38" s="23">
-        <v>-2</v>
-      </c>
       <c r="AG38" s="23">
         <v>-2</v>
       </c>
@@ -4392,16 +4501,22 @@
       <c r="AU38" s="23">
         <v>-2</v>
       </c>
-      <c r="AV38" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="AW38" s="25">
+        <v>-2</v>
+      </c>
+      <c r="AX38" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="23">
         <v>0</v>
       </c>
       <c r="B39" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C39" s="23">
         <v>-2</v>
@@ -4422,10 +4537,10 @@
         <v>-2</v>
       </c>
       <c r="I39" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J39" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="23">
         <v>-1</v>
@@ -4488,7 +4603,7 @@
         <v>-1</v>
       </c>
       <c r="AE39" s="23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" s="23">
         <v>0</v>
@@ -4538,16 +4653,22 @@
       <c r="AU39" s="23">
         <v>0</v>
       </c>
-      <c r="AV39" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV39" s="23">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="23">
         <v>0</v>
       </c>
       <c r="B40" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C40" s="23">
         <v>-2</v>
@@ -4565,13 +4686,13 @@
         <v>-2</v>
       </c>
       <c r="H40" s="23">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="I40" s="23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J40" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="23">
         <v>-1</v>
@@ -4655,11 +4776,11 @@
         <v>-1</v>
       </c>
       <c r="AL40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AM40" s="23">
         <v>97</v>
       </c>
-      <c r="AM40" s="23">
-        <v>-1</v>
-      </c>
       <c r="AN40" s="23">
         <v>-1</v>
       </c>
@@ -4684,11 +4805,17 @@
       <c r="AU40" s="23">
         <v>-1</v>
       </c>
-      <c r="AV40" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV40" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW40" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX40" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="23">
         <v>0</v>
       </c>
@@ -4717,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="23">
         <v>-1</v>
@@ -4830,11 +4957,17 @@
       <c r="AU41" s="23">
         <v>-1</v>
       </c>
-      <c r="AV41" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW41" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX41" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23">
         <v>0</v>
       </c>
@@ -4976,11 +5109,17 @@
       <c r="AU42" s="23">
         <v>-1</v>
       </c>
-      <c r="AV42" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV42" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW42" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX42" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="23">
         <v>0</v>
       </c>
@@ -5122,11 +5261,17 @@
       <c r="AU43" s="23">
         <v>-1</v>
       </c>
-      <c r="AV43" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV43" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW43" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX43" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="23">
         <v>0</v>
       </c>
@@ -5268,11 +5413,17 @@
       <c r="AU44" s="23">
         <v>-1</v>
       </c>
-      <c r="AV44" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV44" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW44" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX44" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="23">
         <v>0</v>
       </c>
@@ -5414,11 +5565,17 @@
       <c r="AU45" s="23">
         <v>-1</v>
       </c>
-      <c r="AV45" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV45" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW45" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="23">
         <v>0</v>
       </c>
@@ -5560,11 +5717,17 @@
       <c r="AU46" s="23">
         <v>-1</v>
       </c>
-      <c r="AV46" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV46" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW46" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="23">
         <v>0</v>
       </c>
@@ -5706,11 +5869,17 @@
       <c r="AU47" s="23">
         <v>-1</v>
       </c>
-      <c r="AV47" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AV47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AW47" s="25">
+        <v>-1</v>
+      </c>
+      <c r="AX47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="24">
         <v>0</v>
       </c>
@@ -5852,7 +6021,13 @@
       <c r="AU48" s="24">
         <v>0</v>
       </c>
-      <c r="AV48" s="25">
+      <c r="AV48" s="24">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="25">
         <v>0</v>
       </c>
     </row>
@@ -6053,7 +6228,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CDDC13-0004-493A-B4F1-E2E27A8A9567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E72F38-949F-4235-AE0F-C206B86129FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -429,6 +429,88 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetLiftInfo</t>
+  </si>
+  <si>
+    <t>LiftMax</t>
+  </si>
+  <si>
+    <t>SetLift</t>
+  </si>
+  <si>
+    <t>POS_V</t>
+  </si>
+  <si>
+    <t>POS_R</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>EndLift</t>
+  </si>
+  <si>
+    <t>EndLiftInfo</t>
+  </si>
+  <si>
+    <t>リフトの設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置の最大数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１個目の設定</t>
+    <rPh sb="0" eb="3">
+      <t>イッコメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xの移動量</t>
+    <rPh sb="2" eb="5">
+      <t>イドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yの移動量</t>
+    <rPh sb="2" eb="5">
+      <t>イドウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1224,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5371,10 +5453,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5678,6 +5760,102 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E25" s="6"/>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E72F38-949F-4235-AE0F-C206B86129FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E47AB6-48BE-48A0-A662-8C03AD8960C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1877,22 +1877,22 @@
         <v>-2</v>
       </c>
       <c r="AC22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI22" s="22">
         <v>-2</v>
@@ -2024,7 +2024,7 @@
         <v>-2</v>
       </c>
       <c r="AC23" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD23" s="22">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
         <v>-2</v>
@@ -2171,7 +2171,7 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD24" s="22">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
@@ -2234,31 +2234,31 @@
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J25" s="22">
         <v>-2</v>
@@ -2273,22 +2273,22 @@
         <v>-2</v>
       </c>
       <c r="N25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2318,7 +2318,7 @@
         <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J26" s="22">
         <v>-2</v>
@@ -2420,7 +2420,7 @@
         <v>-2</v>
       </c>
       <c r="N26" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O26" s="22">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2465,7 +2465,7 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="22">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
         <v>-2</v>
@@ -2495,7 +2495,7 @@
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AN26" s="22">
         <v>-2</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J27" s="22">
         <v>-2</v>
@@ -2560,7 +2560,7 @@
         <v>-2</v>
       </c>
       <c r="N27" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O27" s="22">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2605,7 +2605,7 @@
         <v>-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD27" s="22">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
         <v>-2</v>
       </c>
       <c r="AM27" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="22">
         <v>-2</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J28" s="22">
         <v>-2</v>
@@ -2700,7 +2700,7 @@
         <v>-2</v>
       </c>
       <c r="N28" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O28" s="22">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2745,7 +2745,7 @@
         <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD28" s="22">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J29" s="22">
         <v>-2</v>
@@ -2840,7 +2840,7 @@
         <v>-2</v>
       </c>
       <c r="N29" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O29" s="22">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2885,7 +2885,7 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="22">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -2980,7 +2980,7 @@
         <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
@@ -3013,7 +3013,7 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3120,7 +3120,7 @@
         <v>-2</v>
       </c>
       <c r="N31" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O31" s="22">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="Z31" s="22">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="22">
         <v>-2</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
@@ -3260,7 +3260,7 @@
         <v>-2</v>
       </c>
       <c r="N32" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O32" s="22">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
         <v>-2</v>
@@ -3284,7 +3284,7 @@
         <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AA33" s="22">
         <v>-2</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
         <v>-1</v>
@@ -3573,7 +3573,7 @@
         <v>-1</v>
       </c>
       <c r="Y34" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="22">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -3713,7 +3713,7 @@
         <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="22">
         <v>-1</v>
@@ -3853,7 +3853,7 @@
         <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="22">
         <v>-1</v>
@@ -3993,10 +3993,10 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z37" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="AA37" s="22">
         <v>-1</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J38" s="22">
         <v>-1</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="22">
         <v>-1</v>
@@ -4315,7 +4315,7 @@
         <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="22">
         <v>-1</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J40" s="22">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>-1</v>
       </c>
       <c r="AM40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -4481,31 +4481,31 @@
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="22">
         <v>-1</v>
@@ -5455,7 +5455,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E72F38-949F-4235-AE0F-C206B86129FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CDF68-9AC0-4756-8171-AAEB41E44A31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB45" sqref="BB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1562,7 +1562,7 @@
         <v>-2</v>
       </c>
       <c r="V20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="22">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1709,7 +1709,7 @@
         <v>-2</v>
       </c>
       <c r="V21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="22">
         <v>-2</v>
@@ -1856,7 +1856,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="22">
         <v>-2</v>
@@ -1877,22 +1877,22 @@
         <v>-2</v>
       </c>
       <c r="AC22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AE22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AF22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH22" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI22" s="22">
         <v>-2</v>
@@ -2003,7 +2003,7 @@
         <v>-2</v>
       </c>
       <c r="V23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="22">
         <v>-2</v>
@@ -2024,22 +2024,22 @@
         <v>-2</v>
       </c>
       <c r="AC23" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI23" s="22">
         <v>-2</v>
@@ -2150,7 +2150,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="22">
         <v>-2</v>
@@ -2171,22 +2171,22 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI24" s="22">
         <v>-2</v>
@@ -2229,36 +2229,36 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="B25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="C25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J25" s="22">
         <v>-2</v>
@@ -2273,22 +2273,22 @@
         <v>-2</v>
       </c>
       <c r="N25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2297,7 +2297,7 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="22">
         <v>-2</v>
@@ -2318,10 +2318,10 @@
         <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="22">
         <v>-2</v>
@@ -2330,10 +2330,10 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="22">
         <v>-2</v>
@@ -2376,36 +2376,36 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J26" s="22">
         <v>-2</v>
@@ -2420,22 +2420,22 @@
         <v>-2</v>
       </c>
       <c r="N26" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2444,7 +2444,7 @@
         <v>-2</v>
       </c>
       <c r="V26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="22">
         <v>-2</v>
@@ -2465,22 +2465,22 @@
         <v>-2</v>
       </c>
       <c r="AC26" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="22">
         <v>-2</v>
@@ -2507,7 +2507,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="22">
         <v>-2</v>
@@ -2533,7 +2533,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="22">
         <v>-2</v>
@@ -2542,10 +2542,10 @@
         <v>-2</v>
       </c>
       <c r="H27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J27" s="22">
         <v>-2</v>
@@ -2560,31 +2560,31 @@
         <v>-2</v>
       </c>
       <c r="N27" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="22">
         <v>-2</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2605,22 +2605,22 @@
         <v>-2</v>
       </c>
       <c r="AC27" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
         <v>-2</v>
@@ -2635,7 +2635,7 @@
         <v>-2</v>
       </c>
       <c r="AM27" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="22">
         <v>-2</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -2682,10 +2682,10 @@
         <v>-2</v>
       </c>
       <c r="H28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I28" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J28" s="22">
         <v>-2</v>
@@ -2700,22 +2700,22 @@
         <v>-2</v>
       </c>
       <c r="N28" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2733,40 +2733,40 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="22">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="22">
         <v>0</v>
       </c>
       <c r="AE28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="22">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -2822,10 +2822,10 @@
         <v>-2</v>
       </c>
       <c r="H29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J29" s="22">
         <v>-2</v>
@@ -2840,22 +2840,22 @@
         <v>-2</v>
       </c>
       <c r="N29" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O29" s="22">
         <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2873,7 +2873,7 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
@@ -2885,13 +2885,13 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="22">
         <v>-2</v>
@@ -2903,7 +2903,7 @@
         <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -2912,7 +2912,7 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="22">
         <v>44</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="22">
         <v>-2</v>
@@ -2953,7 +2953,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="22">
         <v>-2</v>
@@ -2962,10 +2962,10 @@
         <v>-2</v>
       </c>
       <c r="H30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J30" s="22">
         <v>-2</v>
@@ -2977,25 +2977,25 @@
         <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
@@ -3016,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="Z30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
         <v>-2</v>
@@ -3052,7 +3052,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="22">
         <v>-2</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B31" s="22">
         <v>-2</v>
@@ -3102,40 +3102,40 @@
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
         <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="22">
         <v>-2</v>
       </c>
       <c r="R31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3150,19 +3150,19 @@
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="22">
         <v>0</v>
       </c>
       <c r="Z31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
         <v>-2</v>
@@ -3192,7 +3192,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" s="22">
         <v>-2</v>
@@ -3233,7 +3233,7 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
         <v>-2</v>
@@ -3242,28 +3242,28 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <v>-2</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
         <v>-2</v>
@@ -3272,10 +3272,10 @@
         <v>-2</v>
       </c>
       <c r="R32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
         <v>-2</v>
@@ -3284,16 +3284,16 @@
         <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
         <v>-2</v>
@@ -3332,7 +3332,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="22">
         <v>-2</v>
@@ -3364,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="B33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3427,114 +3427,114 @@
         <v>0</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="22">
         <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
         <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="22">
         <v>-1</v>
@@ -3564,7 +3564,7 @@
         <v>-1</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="22">
         <v>-1</v>
@@ -3573,46 +3573,46 @@
         <v>-1</v>
       </c>
       <c r="Y34" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
         <v>44</v>
@@ -3641,31 +3641,31 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J35" s="22">
         <v>-1</v>
@@ -3674,7 +3674,7 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -3704,7 +3704,7 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
@@ -3713,46 +3713,46 @@
         <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
         <v>-2</v>
@@ -3781,31 +3781,31 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J36" s="22">
         <v>-1</v>
@@ -3814,25 +3814,25 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="22">
         <v>-1</v>
@@ -3844,7 +3844,7 @@
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -3853,46 +3853,46 @@
         <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="22">
         <v>0</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22">
         <v>-2</v>
@@ -3921,31 +3921,31 @@
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J37" s="22">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
         <v>-1</v>
@@ -3984,7 +3984,7 @@
         <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
         <v>-1</v>
@@ -3993,10 +3993,10 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="AA37" s="22">
         <v>-1</v>
@@ -4005,34 +4005,34 @@
         <v>-1</v>
       </c>
       <c r="AC37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="22">
         <v>-2</v>
@@ -4061,31 +4061,31 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J38" s="22">
         <v>-1</v>
@@ -4112,7 +4112,7 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="22">
         <v>-1</v>
@@ -4124,7 +4124,7 @@
         <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
@@ -4133,7 +4133,7 @@
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
         <v>-1</v>
@@ -4148,28 +4148,28 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="22">
         <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="22">
         <v>0</v>
@@ -4201,31 +4201,31 @@
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J39" s="22">
         <v>-1</v>
@@ -4252,19 +4252,19 @@
         <v>-1</v>
       </c>
       <c r="R39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
         <v>-1</v>
@@ -4315,7 +4315,7 @@
         <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="22">
         <v>-1</v>
@@ -4341,31 +4341,31 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="22">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J40" s="22">
         <v>-1</v>
@@ -4467,7 +4467,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4481,31 +4481,31 @@
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I41" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J41" s="22">
         <v>-1</v>
@@ -5455,8 +5455,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E47AB6-48BE-48A0-A662-8C03AD8960C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83151502-BD59-48AC-BA90-FC3CF15E190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1562,7 +1562,7 @@
         <v>-2</v>
       </c>
       <c r="V20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="22">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1709,7 +1709,7 @@
         <v>-2</v>
       </c>
       <c r="V21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="22">
         <v>-2</v>
@@ -1856,7 +1856,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="22">
         <v>-2</v>
@@ -2003,7 +2003,7 @@
         <v>-2</v>
       </c>
       <c r="V23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="22">
         <v>-2</v>
@@ -2027,16 +2027,16 @@
         <v>-2</v>
       </c>
       <c r="AD23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="22">
         <v>-2</v>
@@ -2150,7 +2150,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="22">
         <v>-2</v>
@@ -2174,16 +2174,16 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2297,7 +2297,7 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="22">
         <v>-2</v>
@@ -2321,7 +2321,7 @@
         <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="22">
         <v>-2</v>
@@ -2330,7 +2330,7 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
         <v>-2</v>
@@ -2376,33 +2376,33 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I26" s="22">
         <v>-2</v>
@@ -2423,16 +2423,16 @@
         <v>-2</v>
       </c>
       <c r="O26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="22">
         <v>-2</v>
@@ -2444,7 +2444,7 @@
         <v>-2</v>
       </c>
       <c r="V26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="22">
         <v>-2</v>
@@ -2468,16 +2468,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2495,19 +2495,19 @@
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ26" s="22">
         <v>97</v>
-      </c>
-      <c r="AN26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ26" s="22">
-        <v>-2</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="22">
         <v>-2</v>
@@ -2533,7 +2533,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="22">
         <v>-2</v>
@@ -2542,7 +2542,7 @@
         <v>-2</v>
       </c>
       <c r="H27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="22">
         <v>-2</v>
@@ -2563,28 +2563,28 @@
         <v>-2</v>
       </c>
       <c r="O27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="22">
         <v>-2</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2608,16 +2608,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
         <v>-2</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -2682,7 +2682,7 @@
         <v>-2</v>
       </c>
       <c r="H28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I28" s="22">
         <v>-2</v>
@@ -2703,28 +2703,28 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="U28" s="22">
         <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -2733,40 +2733,40 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="22">
         <v>0</v>
       </c>
       <c r="AE28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="22">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -2822,7 +2822,7 @@
         <v>-2</v>
       </c>
       <c r="H29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" s="22">
         <v>-2</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2864,7 +2864,7 @@
         <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -2873,10 +2873,10 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -2888,22 +2888,22 @@
         <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AG29" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH29" s="22">
         <v>44</v>
       </c>
-      <c r="AF29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG29" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH29" s="22">
-        <v>-2</v>
-      </c>
       <c r="AI29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -2912,7 +2912,7 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="22">
         <v>44</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="22">
         <v>-2</v>
@@ -2953,7 +2953,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="22">
         <v>-2</v>
@@ -2962,7 +2962,7 @@
         <v>-2</v>
       </c>
       <c r="H30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="22">
         <v>-2</v>
@@ -2977,34 +2977,34 @@
         <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="U30" s="22">
         <v>-2</v>
       </c>
       <c r="V30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="22">
         <v>-2</v>
@@ -3013,22 +3013,22 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
         <v>-2</v>
@@ -3052,7 +3052,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="22">
         <v>-2</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B31" s="22">
         <v>-2</v>
@@ -3102,7 +3102,7 @@
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="22">
         <v>-2</v>
@@ -3111,19 +3111,19 @@
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
         <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>22</v>
@@ -3132,7 +3132,7 @@
         <v>-2</v>
       </c>
       <c r="R31" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S31" s="22">
         <v>-2</v>
@@ -3144,19 +3144,19 @@
         <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="22">
         <v>0</v>
       </c>
       <c r="Z31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
@@ -3165,7 +3165,7 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
         <v>-2</v>
@@ -3192,7 +3192,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" s="22">
         <v>-2</v>
@@ -3233,7 +3233,7 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
         <v>-2</v>
@@ -3242,28 +3242,28 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <v>-2</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="22">
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
         <v>-2</v>
@@ -3272,28 +3272,28 @@
         <v>-2</v>
       </c>
       <c r="R32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
         <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="U32" s="22">
         <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
         <v>-2</v>
@@ -3332,7 +3332,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="22">
         <v>-2</v>
@@ -3364,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="B33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3427,102 +3427,102 @@
         <v>0</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="22">
         <v>0</v>
       </c>
       <c r="Z33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
         <v>-1</v>
@@ -3531,40 +3531,40 @@
         <v>-1</v>
       </c>
       <c r="K34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="N34" s="22">
         <v>-1</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="T34" s="22">
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="22">
         <v>-1</v>
@@ -3576,43 +3576,43 @@
         <v>-1</v>
       </c>
       <c r="Z34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="22">
         <v>44</v>
@@ -3641,28 +3641,28 @@
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="22">
         <v>-1</v>
@@ -3674,7 +3674,7 @@
         <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -3704,7 +3704,7 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
@@ -3716,43 +3716,43 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
         <v>-2</v>
@@ -3781,28 +3781,28 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="22">
         <v>-1</v>
@@ -3814,28 +3814,28 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
@@ -3844,7 +3844,7 @@
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -3856,43 +3856,43 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="22">
         <v>0</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22">
         <v>-2</v>
@@ -3921,28 +3921,28 @@
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="22">
         <v>-1</v>
@@ -3972,7 +3972,7 @@
         <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
         <v>-1</v>
@@ -3984,7 +3984,7 @@
         <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
         <v>-1</v>
@@ -3993,7 +3993,7 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
@@ -4005,34 +4005,34 @@
         <v>-1</v>
       </c>
       <c r="AC37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="22">
         <v>-2</v>
@@ -4061,28 +4061,28 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="22">
         <v>-1</v>
@@ -4112,7 +4112,7 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="22">
         <v>-1</v>
@@ -4124,7 +4124,7 @@
         <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="22">
         <v>-1</v>
@@ -4133,7 +4133,7 @@
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
         <v>-1</v>
@@ -4148,28 +4148,28 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="22">
         <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="22">
         <v>0</v>
@@ -4201,28 +4201,28 @@
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="22">
         <v>-1</v>
@@ -4252,19 +4252,19 @@
         <v>-1</v>
       </c>
       <c r="R39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
         <v>-1</v>
@@ -4341,28 +4341,28 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="22">
         <v>-1</v>
@@ -4455,19 +4455,19 @@
         <v>-1</v>
       </c>
       <c r="AM40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AN40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AO40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AP40" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AQ40" s="22">
         <v>97</v>
-      </c>
-      <c r="AN40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AO40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AP40" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AQ40" s="22">
-        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83151502-BD59-48AC-BA90-FC3CF15E190D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965591E6-7F85-421B-B3F7-618EC3B39633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2912,7 +2912,7 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM29" s="22">
         <v>44</v>
@@ -3052,7 +3052,7 @@
         <v>-2</v>
       </c>
       <c r="AL30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM30" s="22">
         <v>-2</v>
@@ -3192,7 +3192,7 @@
         <v>-2</v>
       </c>
       <c r="AL31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM31" s="22">
         <v>-2</v>
@@ -3332,7 +3332,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM32" s="22">
         <v>-2</v>
@@ -3397,34 +3397,34 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V33" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W33" s="22">
         <v>1</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD33" s="22">
         <v>0</v>
@@ -3457,46 +3457,46 @@
         <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP33" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AQ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3612,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="AL34" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM34" s="22">
         <v>44</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E47AB6-48BE-48A0-A662-8C03AD8960C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3408303-6A08-4CC1-8813-B4248063C146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BS23" sqref="BS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1907,7 +1907,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -1955,7 +1955,7 @@
         <v>-2</v>
       </c>
       <c r="F23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="22">
         <v>-2</v>
@@ -1973,7 +1973,7 @@
         <v>-2</v>
       </c>
       <c r="L23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="22">
         <v>-2</v>
@@ -1985,10 +1985,10 @@
         <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2027,16 +2027,16 @@
         <v>-2</v>
       </c>
       <c r="AD23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="22">
         <v>-2</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="22">
         <v>-2</v>
@@ -2102,34 +2102,34 @@
         <v>-2</v>
       </c>
       <c r="F24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2174,16 +2174,16 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2288,7 +2288,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2321,7 +2321,7 @@
         <v>-2</v>
       </c>
       <c r="AD25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="22">
         <v>-2</v>
@@ -2330,7 +2330,7 @@
         <v>-2</v>
       </c>
       <c r="AG25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH25" s="22">
         <v>-2</v>
@@ -2348,13 +2348,13 @@
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2376,33 +2376,33 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I26" s="22">
         <v>-2</v>
@@ -2423,19 +2423,19 @@
         <v>-2</v>
       </c>
       <c r="O26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2468,16 +2468,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="22">
         <v>-2</v>
       </c>
       <c r="AG26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="22">
         <v>-2</v>
@@ -2495,7 +2495,7 @@
         <v>-2</v>
       </c>
       <c r="AM26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AN26" s="22">
         <v>-2</v>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C27" s="22">
         <v>-2</v>
@@ -2533,7 +2533,7 @@
         <v>-2</v>
       </c>
       <c r="E27" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="22">
         <v>-2</v>
@@ -2542,7 +2542,7 @@
         <v>-2</v>
       </c>
       <c r="H27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="22">
         <v>-2</v>
@@ -2563,19 +2563,19 @@
         <v>-2</v>
       </c>
       <c r="O27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2584,7 +2584,7 @@
         <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2608,16 +2608,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="22">
         <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
         <v>-2</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B28" s="22">
         <v>-2</v>
@@ -2682,7 +2682,7 @@
         <v>-2</v>
       </c>
       <c r="H28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I28" s="22">
         <v>-2</v>
@@ -2703,19 +2703,19 @@
         <v>-2</v>
       </c>
       <c r="O28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="22">
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2724,7 +2724,7 @@
         <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -2733,13 +2733,13 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
@@ -2748,7 +2748,7 @@
         <v>-2</v>
       </c>
       <c r="AD28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE28" s="22">
         <v>-2</v>
@@ -2757,51 +2757,51 @@
         <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B29" s="22">
         <v>-2</v>
@@ -2822,7 +2822,7 @@
         <v>-2</v>
       </c>
       <c r="H29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" s="22">
         <v>-2</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="P29" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2864,7 +2864,7 @@
         <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -2873,7 +2873,7 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
@@ -2882,16 +2882,16 @@
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="22">
         <v>-2</v>
@@ -2903,7 +2903,7 @@
         <v>-2</v>
       </c>
       <c r="AI29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
         <v>-2</v>
@@ -2915,7 +2915,7 @@
         <v>-2</v>
       </c>
       <c r="AM29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN29" s="22">
         <v>-2</v>
@@ -2927,7 +2927,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="22">
         <v>-2</v>
@@ -2953,7 +2953,7 @@
         <v>-2</v>
       </c>
       <c r="E30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="22">
         <v>-2</v>
@@ -2962,7 +2962,7 @@
         <v>-2</v>
       </c>
       <c r="H30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="22">
         <v>-2</v>
@@ -2974,13 +2974,13 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
@@ -3004,7 +3004,7 @@
         <v>-2</v>
       </c>
       <c r="V30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="22">
         <v>-2</v>
@@ -3013,22 +3013,22 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
         <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="22">
         <v>-2</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B31" s="22">
         <v>-2</v>
@@ -3102,7 +3102,7 @@
         <v>-2</v>
       </c>
       <c r="H31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="22">
         <v>-2</v>
@@ -3114,7 +3114,7 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="22">
         <v>-2</v>
@@ -3126,16 +3126,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3144,19 +3144,19 @@
         <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
       </c>
       <c r="X31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="22">
         <v>0</v>
       </c>
       <c r="Z31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
@@ -3165,10 +3165,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3186,7 +3186,7 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
@@ -3198,7 +3198,7 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3210,7 +3210,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" s="22">
         <v>-2</v>
@@ -3233,7 +3233,7 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
         <v>-2</v>
@@ -3242,7 +3242,7 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="22">
         <v>-2</v>
@@ -3251,10 +3251,10 @@
         <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3263,34 +3263,34 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X32" s="22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="22">
         <v>-2</v>
@@ -3311,46 +3311,46 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AR32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="22">
         <v>-2</v>
@@ -3364,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="B33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C33" s="22">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="22">
         <v>0</v>
@@ -3397,43 +3397,43 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="22">
         <v>-2</v>
@@ -3442,108 +3442,108 @@
         <v>-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B34" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="22">
         <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
@@ -3576,93 +3576,93 @@
         <v>-1</v>
       </c>
       <c r="Z34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="22">
         <v>-1</v>
@@ -3671,13 +3671,13 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <v>-1</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
@@ -3686,7 +3686,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -3716,93 +3716,93 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="22">
         <v>-1</v>
@@ -3817,7 +3817,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
         <v>-1</v>
@@ -3826,13 +3826,13 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="22">
         <v>-1</v>
@@ -3856,93 +3856,93 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
         <v>0</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="C37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="22">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="22">
         <v>-1</v>
@@ -3975,7 +3975,7 @@
         <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
         <v>-1</v>
@@ -3999,90 +3999,90 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
       </c>
       <c r="AC37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="22">
         <v>-1</v>
@@ -4115,31 +4115,31 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4154,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="AF38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
         <v>0</v>
@@ -4175,54 +4175,54 @@
         <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
         <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="22">
         <v>-1</v>
@@ -4255,22 +4255,22 @@
         <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
@@ -4300,10 +4300,10 @@
         <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="22">
         <v>-1</v>
@@ -4324,7 +4324,7 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="22">
         <v>-1</v>
@@ -4341,28 +4341,28 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="22">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>-1</v>
       </c>
       <c r="AM40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AN40" s="22">
         <v>-1</v>
@@ -4467,7 +4467,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4633,13 +4633,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -4735,13 +4735,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -4916,7 +4916,7 @@
         <v>-1</v>
       </c>
       <c r="F44" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="G44" s="22">
         <v>-1</v>
@@ -5455,7 +5455,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3408303-6A08-4CC1-8813-B4248063C146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6887359-F1F9-425D-ADB2-976FCA94178D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -87,9 +87,6 @@
     <t>SetStage</t>
   </si>
   <si>
-    <t>EndStage</t>
-  </si>
-  <si>
     <t>StageWidth</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -511,6 +508,23 @@
     <t>Yの移動量</t>
     <rPh sb="2" eb="5">
       <t>イドウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndStage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ここからの関数はEndStageの下に書くこと</t>
+    <rPh sb="6" eb="8">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -723,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1306,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BS23" sqref="BS23"/>
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1330,7 +1347,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -1338,7 +1355,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="10">
         <v>27</v>
@@ -1349,19 +1366,19 @@
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1370,7 +1387,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -1387,7 +1404,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10">
         <v>255</v>
@@ -1408,7 +1425,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="10">
         <v>255</v>
@@ -1425,7 +1442,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="10">
         <v>52</v>
@@ -1442,7 +1459,7 @@
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -1462,7 +1479,7 @@
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1485,7 +1502,7 @@
     </row>
     <row r="17" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -1494,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1637,7 +1654,7 @@
         <v>-2</v>
       </c>
       <c r="AX20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
@@ -1784,7 +1801,7 @@
         <v>-2</v>
       </c>
       <c r="AX21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$20:$AT$46,11,$A$20:$AT$46,12,A20:$AT$46,13)</f>
@@ -1931,7 +1948,7 @@
         <v>-2</v>
       </c>
       <c r="AX22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$20:$AT$46,21,$A$20:$AT$46,22)</f>
@@ -2078,7 +2095,7 @@
         <v>-2</v>
       </c>
       <c r="AX23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY23">
         <f>COUNTIFS($A$20:$AT$46,31,$A$20:$AT$46,33)</f>
@@ -2225,7 +2242,7 @@
         <v>-2</v>
       </c>
       <c r="AX24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
@@ -2372,7 +2389,7 @@
         <v>-2</v>
       </c>
       <c r="AX25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
@@ -5321,7 +5338,7 @@
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -5455,8 +5472,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5474,10 +5491,10 @@
         <v>-3</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5485,20 +5502,20 @@
         <v>-1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="23"/>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5506,16 +5523,16 @@
         <v>-2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -5523,19 +5540,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -5549,19 +5566,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
         <v>59</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>60</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>61</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -5575,13 +5592,13 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="4">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5603,7 +5620,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5611,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -5619,7 +5636,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -5627,10 +5644,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -5638,10 +5655,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -5649,10 +5666,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -5660,10 +5677,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -5671,10 +5688,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -5682,10 +5699,10 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -5693,10 +5710,10 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -5704,10 +5721,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -5731,7 +5748,7 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -5747,38 +5764,43 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E25" s="6"/>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -5786,15 +5808,15 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5803,15 +5825,15 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -5820,15 +5842,15 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5837,15 +5859,15 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
         <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -5853,7 +5875,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3408303-6A08-4CC1-8813-B4248063C146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1188065-0A51-4439-B31B-02296E3DF56D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BS23" sqref="BS23"/>
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
@@ -3165,7 +3165,7 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="22">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="P32" s="22">
         <v>2</v>
@@ -3308,7 +3308,7 @@
         <v>-2</v>
       </c>
       <c r="AD32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="22">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="N33" s="22">
         <v>-2</v>
@@ -3406,10 +3406,10 @@
         <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="R33" s="22">
         <v>-2</v>
@@ -3418,7 +3418,7 @@
         <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="U33" s="22">
         <v>-2</v>
@@ -3427,7 +3427,7 @@
         <v>-2</v>
       </c>
       <c r="W33" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="X33" s="22">
         <v>-2</v>
@@ -3835,28 +3835,28 @@
         <v>0</v>
       </c>
       <c r="S36" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="22">
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AA36" s="22">
         <v>0</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6887359-F1F9-425D-ADB2-976FCA94178D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729C024-A4AA-4BB8-BB45-BE11BE6ED183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -484,20 +484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>行</t>
-    <rPh sb="0" eb="1">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Xの移動量</t>
     <rPh sb="2" eb="5">
       <t>イドウリョウ</t>
@@ -525,6 +511,20 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列(Y)</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行(X)</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -5472,8 +5472,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -5825,10 +5825,10 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -5839,13 +5839,13 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -5859,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729C024-A4AA-4BB8-BB45-BE11BE6ED183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B978215-2B32-4473-879A-BA1FE01A1167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -1323,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1924,7 +1924,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -1972,7 +1972,7 @@
         <v>-2</v>
       </c>
       <c r="F23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="22">
         <v>-2</v>
@@ -1990,7 +1990,7 @@
         <v>-2</v>
       </c>
       <c r="L23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M23" s="22">
         <v>-2</v>
@@ -2002,10 +2002,10 @@
         <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C24" s="22">
         <v>-2</v>
@@ -2119,34 +2119,34 @@
         <v>-2</v>
       </c>
       <c r="F24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2191,10 +2191,10 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="22">
         <v>-2</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2305,7 +2305,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2332,10 +2332,10 @@
         <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2365,13 +2365,13 @@
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2452,7 +2452,7 @@
         <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2509,7 +2509,7 @@
         <v>-2</v>
       </c>
       <c r="AL26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AM26" s="22">
         <v>-2</v>
@@ -2586,7 +2586,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2595,25 +2595,25 @@
         <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
         <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
       </c>
       <c r="X27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="22">
         <v>-2</v>
@@ -2631,49 +2631,49 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2726,13 +2726,13 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2741,19 +2741,19 @@
         <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
         <v>0</v>
@@ -2771,10 +2771,10 @@
         <v>-2</v>
       </c>
       <c r="AF28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -2783,7 +2783,7 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AK28" s="22">
         <v>-2</v>
@@ -2792,13 +2792,13 @@
         <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AP28" s="22">
         <v>-2</v>
@@ -2807,7 +2807,7 @@
         <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AS28" s="22">
         <v>-2</v>
@@ -2860,19 +2860,19 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2881,25 +2881,25 @@
         <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
       </c>
       <c r="X29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
       </c>
       <c r="AA29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
@@ -2911,7 +2911,7 @@
         <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="22">
         <v>-2</v>
@@ -2991,67 +2991,67 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="22">
         <v>0</v>
       </c>
       <c r="W30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Y30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="22">
         <v>0</v>
       </c>
       <c r="AD30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
@@ -3131,7 +3131,7 @@
         <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="22">
         <v>-2</v>
@@ -3140,28 +3140,28 @@
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
@@ -3170,7 +3170,7 @@
         <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3182,10 +3182,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AD31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3194,7 +3194,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3203,10 +3203,10 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK31" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AL31" s="22">
         <v>-2</v>
@@ -3215,10 +3215,10 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO31" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AP31" s="22">
         <v>-2</v>
@@ -3227,7 +3227,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3250,11 +3250,11 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F32" s="22">
         <v>90</v>
       </c>
-      <c r="F32" s="22">
-        <v>-2</v>
-      </c>
       <c r="G32" s="22">
         <v>-2</v>
       </c>
@@ -3265,13 +3265,13 @@
         <v>-2</v>
       </c>
       <c r="J32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" s="22">
         <v>-2</v>
@@ -3283,31 +3283,31 @@
         <v>-2</v>
       </c>
       <c r="P32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="U32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="22">
         <v>-2</v>
@@ -3328,46 +3328,46 @@
         <v>-2</v>
       </c>
       <c r="AE32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AR32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS32" s="22">
         <v>-2</v>
@@ -3384,61 +3384,61 @@
         <v>0</v>
       </c>
       <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>0</v>
+      </c>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="22">
         <v>1</v>
       </c>
-      <c r="D33" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="N33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="O33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="P33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>-2</v>
-      </c>
       <c r="R33" s="22">
         <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="V33" s="22">
         <v>-2</v>
@@ -3459,61 +3459,61 @@
         <v>-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3530,37 +3530,37 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="22">
         <v>91</v>
       </c>
-      <c r="F34" s="22">
-        <v>-1</v>
-      </c>
       <c r="G34" s="22">
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
         <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="22">
         <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="22">
         <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
@@ -3578,82 +3578,82 @@
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="W34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AA34" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AC34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AE34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AP34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR34" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AS34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT34" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3688,13 +3688,13 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
         <v>-1</v>
       </c>
       <c r="M35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
@@ -3703,7 +3703,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -3721,79 +3721,79 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="X35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Z35" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AA35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB35" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="AC35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AE35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AN35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="AR35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3834,7 +3834,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="22">
         <v>-1</v>
@@ -3843,13 +3843,13 @@
         <v>-1</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S36" s="22">
         <v>-1</v>
@@ -3864,76 +3864,76 @@
         <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AC36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AE36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3992,7 +3992,7 @@
         <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37" s="22">
         <v>-1</v>
@@ -4019,61 +4019,61 @@
         <v>0</v>
       </c>
       <c r="AB37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="22">
         <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AF37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AL37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AM37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AO37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT37" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4132,31 +4132,31 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4168,52 +4168,52 @@
         <v>0</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AG38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AH38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AQ38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AS38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AT38" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4272,25 +4272,25 @@
         <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="22">
         <v>-1</v>
@@ -4305,16 +4305,16 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="22">
         <v>0</v>
@@ -4323,37 +4323,37 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="22">
         <v>0</v>
       </c>
       <c r="AQ39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4469,7 +4469,7 @@
         <v>-1</v>
       </c>
       <c r="AL40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AM40" s="22">
         <v>-1</v>
@@ -4484,7 +4484,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4558,10 +4558,10 @@
         <v>-1</v>
       </c>
       <c r="U41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="22">
         <v>-1</v>
@@ -4650,13 +4650,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -4752,13 +4752,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -4933,7 +4933,7 @@
         <v>-1</v>
       </c>
       <c r="F44" s="22">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="G44" s="22">
         <v>-1</v>
@@ -5472,7 +5472,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729C024-A4AA-4BB8-BB45-BE11BE6ED183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100C1D8-60E6-4212-97A0-7B2634A697C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -474,16 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>１個目の設定</t>
-    <rPh sb="0" eb="3">
-      <t>イッコメ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Xの移動量</t>
     <rPh sb="2" eb="5">
       <t>イドウリョウ</t>
@@ -526,6 +516,64 @@
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#１個目の設定</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隕石の設定</t>
+    <rPh sb="0" eb="2">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetMeteorInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeteorMax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndMeteor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetMeteor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEVAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成間隔</t>
+    <rPh sb="0" eb="4">
+      <t>セイセイカンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndMeteorInfo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -533,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,8 +627,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +739,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -731,13 +793,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +960,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5338,7 +5513,7 @@
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -5470,10 +5645,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5694,7 +5869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="16">
         <v>31</v>
       </c>
@@ -5705,7 +5880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="16">
         <v>33</v>
       </c>
@@ -5716,7 +5891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="16">
         <v>44</v>
       </c>
@@ -5727,7 +5902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>90</v>
       </c>
@@ -5735,7 +5910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="13">
         <v>91</v>
       </c>
@@ -5743,7 +5918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="17">
         <v>97</v>
       </c>
@@ -5751,7 +5926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>98</v>
       </c>
@@ -5759,7 +5934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>99</v>
       </c>
@@ -5774,111 +5949,311 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E25" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="26">
+        <v>1</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="26">
+        <v>5</v>
+      </c>
+      <c r="C34" s="26">
+        <v>10</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31">
+      <c r="G34" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="26">
+        <v>5</v>
+      </c>
+      <c r="C35" s="26">
+        <v>10</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="26">
         <v>1</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="41" spans="1:7" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="26">
+        <v>1</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="26">
+        <v>5</v>
+      </c>
+      <c r="C46" s="26">
+        <v>10</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="26">
+        <v>1</v>
+      </c>
+      <c r="C47" s="26">
+        <v>0</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G47" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="26">
+        <v>120</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A41:G41"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100C1D8-60E6-4212-97A0-7B2634A697C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F64D108-1057-408E-81A4-F047455C51A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -5648,7 +5648,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B978215-2B32-4473-879A-BA1FE01A1167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94E768-87F9-4DAB-833F-237AC7C497A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -533,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +578,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="18">
@@ -737,7 +744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +819,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1336,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1658,7 +1671,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2191,16 +2204,16 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
@@ -2212,10 +2225,10 @@
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="22">
         <v>-2</v>
@@ -2246,7 +2259,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2393,7 +2406,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2509,28 +2522,28 @@
         <v>-2</v>
       </c>
       <c r="AL26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AM26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AO26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AR26" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AS26" s="22">
         <v>97</v>
-      </c>
-      <c r="AM26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AN26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AO26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AP26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AQ26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AR26" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AS26" s="22">
-        <v>-2</v>
       </c>
       <c r="AT26" s="22">
         <v>-2</v>
@@ -2592,22 +2605,22 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
       </c>
       <c r="X27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y27" s="22">
         <v>0</v>
@@ -2616,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="22">
         <v>-2</v>
@@ -2631,49 +2644,49 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP27" s="22">
         <v>0</v>
       </c>
       <c r="AQ27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2732,34 +2745,34 @@
         <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
       </c>
       <c r="X28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y28" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="22">
         <v>22</v>
       </c>
-      <c r="Z28" s="22">
-        <v>-2</v>
-      </c>
       <c r="AA28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="22">
         <v>-2</v>
@@ -2771,10 +2784,10 @@
         <v>-2</v>
       </c>
       <c r="AF28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
         <v>-2</v>
@@ -2783,7 +2796,7 @@
         <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
         <v>-2</v>
@@ -2792,28 +2805,28 @@
         <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2881,67 +2894,67 @@
         <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X29" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
       </c>
       <c r="AA29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AD29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AM29" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="22">
         <v>-2</v>
@@ -2985,7 +2998,7 @@
         <v>-2</v>
       </c>
       <c r="J30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K30" s="22">
         <v>-2</v>
@@ -3018,7 +3031,7 @@
         <v>-2</v>
       </c>
       <c r="U30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="22">
         <v>0</v>
@@ -3027,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="X30" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="22">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="Z30" s="22">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
       </c>
       <c r="AB30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="22">
         <v>0</v>
@@ -3048,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
         <v>11</v>
@@ -3125,7 +3138,7 @@
         <v>-2</v>
       </c>
       <c r="J31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K31" s="22">
         <v>-2</v>
@@ -3158,28 +3171,28 @@
         <v>-2</v>
       </c>
       <c r="U31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="W31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="X31" s="22">
         <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AC31" s="22">
         <v>44</v>
@@ -3292,16 +3305,16 @@
         <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="T32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="U32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
         <v>-2</v>
@@ -3438,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="W33" s="22">
         <v>-2</v>
@@ -3450,7 +3463,7 @@
         <v>-2</v>
       </c>
       <c r="Y33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="Z33" s="22">
         <v>-2</v>
@@ -3459,7 +3472,7 @@
         <v>-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AC33" s="22">
         <v>-2</v>
@@ -3542,7 +3555,7 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="22">
         <v>2</v>
@@ -3581,22 +3594,22 @@
         <v>0</v>
       </c>
       <c r="V34" s="22">
-        <v>31</v>
-      </c>
-      <c r="W34" s="22">
-        <v>-2</v>
+        <v>2</v>
+      </c>
+      <c r="W34" s="25">
+        <v>2</v>
       </c>
       <c r="X34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Z34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB34" s="22">
         <v>-2</v>
@@ -3604,7 +3617,7 @@
       <c r="AC34" s="22">
         <v>-2</v>
       </c>
-      <c r="AD34" s="22">
+      <c r="AD34" s="26">
         <v>-2</v>
       </c>
       <c r="AE34" s="22">
@@ -3688,7 +3701,7 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <v>-1</v>
@@ -3721,25 +3734,25 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="22">
         <v>-2</v>
@@ -3837,7 +3850,7 @@
         <v>-1</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="22">
         <v>-1</v>
@@ -3864,22 +3877,22 @@
         <v>-1</v>
       </c>
       <c r="W36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="22">
         <v>0</v>
@@ -4016,10 +4029,10 @@
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37" s="22">
         <v>-1</v>
@@ -4144,7 +4157,7 @@
         <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
@@ -4153,7 +4166,7 @@
         <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4278,7 +4291,7 @@
         <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="22">
         <v>-1</v>
@@ -4287,10 +4300,10 @@
         <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z39" s="22">
         <v>-1</v>
@@ -4469,7 +4482,7 @@
         <v>-1</v>
       </c>
       <c r="AL40" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AM40" s="22">
         <v>-1</v>
@@ -4552,16 +4565,16 @@
         <v>-1</v>
       </c>
       <c r="S41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="22">
         <v>-1</v>
       </c>
       <c r="U41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W41" s="22">
         <v>-1</v>
@@ -4591,7 +4604,7 @@
         <v>-1</v>
       </c>
       <c r="AF41" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AG41" s="22">
         <v>-1</v>
@@ -4883,10 +4896,10 @@
         <v>-1</v>
       </c>
       <c r="AJ43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="22">
         <v>-1</v>
@@ -4895,10 +4908,10 @@
         <v>-1</v>
       </c>
       <c r="AN43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="22">
         <v>-1</v>
@@ -4907,10 +4920,10 @@
         <v>-1</v>
       </c>
       <c r="AR43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="22">
         <v>-1</v>
@@ -5166,7 +5179,7 @@
         <v>-1</v>
       </c>
       <c r="AK45" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="22">
         <v>-1</v>
@@ -5181,7 +5194,7 @@
         <v>-1</v>
       </c>
       <c r="AP45" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AQ45" s="22">
         <v>-1</v>
@@ -5472,7 +5485,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94E768-87F9-4DAB-833F-237AC7C497A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359AE83-317E-420B-A4DD-20BF1126D65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -533,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,13 +578,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="18">
@@ -744,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,12 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1671,7 +1658,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2259,7 +2246,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2406,7 +2393,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2903,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="Y29" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z29" s="22">
         <v>-2</v>
@@ -2912,7 +2899,7 @@
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC29" s="22">
         <v>2</v>
@@ -2954,16 +2941,16 @@
         <v>0</v>
       </c>
       <c r="AP29" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ29" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
       </c>
       <c r="AS29" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AT29" s="22">
         <v>-2</v>
@@ -3037,40 +3024,40 @@
         <v>0</v>
       </c>
       <c r="W30" s="22">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Z30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AA30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC30" s="22">
+        <v>21</v>
+      </c>
+      <c r="AD30" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE30" s="22">
         <v>31</v>
       </c>
-      <c r="AA30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB30" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="22">
-        <v>-2</v>
-      </c>
       <c r="AF30" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="22">
         <v>-2</v>
       </c>
       <c r="AH30" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AI30" s="22">
         <v>-2</v>
@@ -3079,7 +3066,7 @@
         <v>-2</v>
       </c>
       <c r="AK30" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AL30" s="22">
         <v>-2</v>
@@ -3088,7 +3075,7 @@
         <v>-2</v>
       </c>
       <c r="AN30" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AO30" s="22">
         <v>-2</v>
@@ -3186,13 +3173,13 @@
         <v>-2</v>
       </c>
       <c r="Z31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AA31" s="22">
         <v>-2</v>
       </c>
       <c r="AB31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="22">
         <v>44</v>
@@ -3314,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="V32" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W32" s="22">
         <v>-2</v>
@@ -3451,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V33" s="22">
         <v>31</v>
@@ -3463,7 +3450,7 @@
         <v>-2</v>
       </c>
       <c r="Y33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="Z33" s="22">
         <v>-2</v>
@@ -3472,7 +3459,7 @@
         <v>-2</v>
       </c>
       <c r="AB33" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AC33" s="22">
         <v>-2</v>
@@ -3596,7 +3583,7 @@
       <c r="V34" s="22">
         <v>2</v>
       </c>
-      <c r="W34" s="25">
+      <c r="W34" s="22">
         <v>2</v>
       </c>
       <c r="X34" s="22">
@@ -3612,12 +3599,12 @@
         <v>2</v>
       </c>
       <c r="AB34" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AC34" s="22">
         <v>-2</v>
       </c>
-      <c r="AD34" s="26">
+      <c r="AD34" s="22">
         <v>-2</v>
       </c>
       <c r="AE34" s="22">
@@ -3755,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AD35" s="22">
         <v>-2</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359AE83-317E-420B-A4DD-20BF1126D65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8036D-096D-4BC6-9C7D-59671AFDED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1323,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1579,7 +1579,7 @@
         <v>-2</v>
       </c>
       <c r="V20" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="22">
         <v>-2</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1726,7 +1726,7 @@
         <v>-2</v>
       </c>
       <c r="V21" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="22">
         <v>-2</v>
@@ -1873,7 +1873,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="22">
         <v>-2</v>
@@ -2020,7 +2020,7 @@
         <v>-2</v>
       </c>
       <c r="V23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" s="22">
         <v>-2</v>
@@ -2167,7 +2167,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W24" s="22">
         <v>-2</v>
@@ -2197,10 +2197,10 @@
         <v>-2</v>
       </c>
       <c r="AF24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH24" s="22">
         <v>-2</v>
@@ -2212,10 +2212,10 @@
         <v>-2</v>
       </c>
       <c r="AK24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM24" s="22">
         <v>-2</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2314,7 +2314,7 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="22">
         <v>-2</v>
@@ -2332,10 +2332,10 @@
         <v>-2</v>
       </c>
       <c r="AB25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD25" s="22">
         <v>-2</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2461,7 +2461,7 @@
         <v>-2</v>
       </c>
       <c r="V26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="22">
         <v>-2</v>
@@ -2491,7 +2491,7 @@
         <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="22">
         <v>-2</v>
@@ -2521,16 +2521,16 @@
         <v>-2</v>
       </c>
       <c r="AP26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>-2</v>
+        <v>97</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
       </c>
       <c r="AS26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AT26" s="22">
         <v>-2</v>
@@ -2592,10 +2592,10 @@
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="22">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>-2</v>
       </c>
       <c r="Y27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB27" s="22">
         <v>-2</v>
@@ -2631,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="22">
         <v>-2</v>
@@ -2661,7 +2661,7 @@
         <v>-2</v>
       </c>
       <c r="AP27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="22">
         <v>-2</v>
@@ -2726,7 +2726,7 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
@@ -2735,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28" s="22">
         <v>0</v>
@@ -2753,52 +2753,52 @@
         <v>0</v>
       </c>
       <c r="Z28" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AG28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="22">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2884,73 +2884,73 @@
         <v>0</v>
       </c>
       <c r="W29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AE29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AG29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AM29" s="22">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="AN29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP29" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
       </c>
       <c r="AS29" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AT29" s="22">
         <v>-2</v>
@@ -2985,7 +2985,7 @@
         <v>-2</v>
       </c>
       <c r="J30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K30" s="22">
         <v>-2</v>
@@ -2994,28 +2994,28 @@
         <v>-2</v>
       </c>
       <c r="M30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="P30" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R30" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S30" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="T30" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="U30" s="22">
         <v>-2</v>
@@ -3024,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="X30" s="22">
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="22">
         <v>-2</v>
@@ -3042,13 +3042,13 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
         <v>-2</v>
       </c>
       <c r="AE30" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="22">
         <v>-2</v>
@@ -3057,7 +3057,7 @@
         <v>-2</v>
       </c>
       <c r="AH30" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AI30" s="22">
         <v>-2</v>
@@ -3066,7 +3066,7 @@
         <v>-2</v>
       </c>
       <c r="AK30" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AL30" s="22">
         <v>-2</v>
@@ -3075,7 +3075,7 @@
         <v>-2</v>
       </c>
       <c r="AN30" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AO30" s="22">
         <v>-2</v>
@@ -3125,31 +3125,31 @@
         <v>-2</v>
       </c>
       <c r="J31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L31" s="22">
         <v>-2</v>
       </c>
       <c r="M31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="O31" s="22">
         <v>-2</v>
       </c>
       <c r="P31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="Q31" s="22">
         <v>-2</v>
       </c>
       <c r="R31" s="22">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="S31" s="22">
         <v>-2</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="W31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="X31" s="22">
         <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3182,7 +3182,7 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
         <v>-2</v>
@@ -3194,7 +3194,7 @@
         <v>-2</v>
       </c>
       <c r="AG31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="22">
         <v>-2</v>
@@ -3206,7 +3206,7 @@
         <v>-2</v>
       </c>
       <c r="AK31" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AL31" s="22">
         <v>-2</v>
@@ -3218,7 +3218,7 @@
         <v>-2</v>
       </c>
       <c r="AO31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AP31" s="22">
         <v>-2</v>
@@ -3227,7 +3227,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3250,10 +3250,10 @@
         <v>-2</v>
       </c>
       <c r="E32" s="22">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="22">
         <v>-2</v>
@@ -3262,19 +3262,19 @@
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="22">
         <v>-2</v>
@@ -3292,16 +3292,16 @@
         <v>-2</v>
       </c>
       <c r="S32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T32" s="22">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="U32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="V32" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
         <v>-2</v>
@@ -3310,7 +3310,7 @@
         <v>-2</v>
       </c>
       <c r="Y32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
         <v>-2</v>
@@ -3349,7 +3349,7 @@
         <v>-2</v>
       </c>
       <c r="AL32" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AM32" s="22">
         <v>-2</v>
@@ -3414,68 +3414,68 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S33" s="22">
+        <v>31</v>
+      </c>
+      <c r="T33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V33" s="22">
+        <v>11</v>
+      </c>
+      <c r="W33" s="22">
         <v>1</v>
       </c>
-      <c r="R33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S33" s="22">
-        <v>0</v>
-      </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22">
+      <c r="X33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="22">
         <v>11</v>
       </c>
-      <c r="V33" s="22">
+      <c r="AD33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="22">
         <v>31</v>
       </c>
-      <c r="W33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="X33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AB33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG33" s="22">
-        <v>-2</v>
-      </c>
       <c r="AH33" s="22">
         <v>-2</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>-2</v>
       </c>
       <c r="AJ33" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AK33" s="22">
         <v>-2</v>
@@ -3492,7 +3492,7 @@
         <v>-2</v>
       </c>
       <c r="AM33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AN33" s="22">
         <v>-2</v>
@@ -3501,13 +3501,13 @@
         <v>-2</v>
       </c>
       <c r="AP33" s="22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AQ33" s="22">
         <v>-2</v>
       </c>
       <c r="AR33" s="22">
-        <v>-2</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
         <v>-2</v>
@@ -3530,10 +3530,10 @@
         <v>-1</v>
       </c>
       <c r="E34" s="22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="F34" s="22">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="22">
         <v>-1</v>
@@ -3542,112 +3542,112 @@
         <v>-1</v>
       </c>
       <c r="I34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>22</v>
+      </c>
+      <c r="N34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="22">
+        <v>22</v>
+      </c>
+      <c r="P34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>22</v>
+      </c>
+      <c r="R34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="22">
+        <v>22</v>
+      </c>
+      <c r="T34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="22">
+        <v>12</v>
+      </c>
+      <c r="V34" s="22">
+        <v>0</v>
+      </c>
+      <c r="W34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AC34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AE34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AF34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="AG34" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="22">
         <v>2</v>
       </c>
-      <c r="K34" s="22">
+      <c r="AI34" s="22">
         <v>2</v>
       </c>
-      <c r="L34" s="22">
+      <c r="AJ34" s="22">
         <v>2</v>
       </c>
-      <c r="M34" s="22">
+      <c r="AK34" s="22">
         <v>2</v>
       </c>
-      <c r="N34" s="22">
-        <v>2</v>
-      </c>
-      <c r="O34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="22">
-        <v>0</v>
-      </c>
-      <c r="V34" s="22">
-        <v>2</v>
-      </c>
-      <c r="W34" s="22">
-        <v>2</v>
-      </c>
-      <c r="X34" s="22">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>2</v>
-      </c>
-      <c r="AB34" s="22">
+      <c r="AL34" s="22">
         <v>11</v>
       </c>
-      <c r="AC34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AE34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AF34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AG34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AH34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AI34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AJ34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AK34" s="22">
-        <v>-2</v>
-      </c>
-      <c r="AL34" s="22">
-        <v>-2</v>
-      </c>
       <c r="AM34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AN34" s="22">
         <v>-2</v>
       </c>
       <c r="AO34" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AP34" s="22">
         <v>-2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="AR34" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="AS34" s="22">
         <v>-2</v>
@@ -3688,10 +3688,10 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
         <v>-1</v>
@@ -3721,16 +3721,16 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
       </c>
       <c r="X35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35" s="22">
         <v>-1</v>
@@ -3739,40 +3739,40 @@
         <v>-1</v>
       </c>
       <c r="AB35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN35" s="22">
         <v>-2</v>
@@ -3784,7 +3784,7 @@
         <v>-2</v>
       </c>
       <c r="AQ35" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR35" s="22">
         <v>-2</v>
@@ -3831,28 +3831,28 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="S36" s="22">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="T36" s="22">
         <v>-1</v>
@@ -3861,7 +3861,7 @@
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
@@ -3873,43 +3873,43 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AE36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22">
         <v>-2</v>
@@ -3989,7 +3989,7 @@
         <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
         <v>-1</v>
@@ -4010,7 +4010,7 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
@@ -4025,31 +4025,31 @@
         <v>-1</v>
       </c>
       <c r="AD37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="22">
         <v>-2</v>
@@ -4129,7 +4129,7 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="22">
         <v>-1</v>
@@ -4141,19 +4141,19 @@
         <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
         <v>-1</v>
@@ -4165,55 +4165,55 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4269,19 +4269,19 @@
         <v>-1</v>
       </c>
       <c r="R39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="22">
         <v>0</v>
       </c>
       <c r="V39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="22">
         <v>-1</v>
@@ -4305,55 +4305,55 @@
         <v>-1</v>
       </c>
       <c r="AD39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4484,7 +4484,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4552,7 +4552,7 @@
         <v>-1</v>
       </c>
       <c r="S41" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T41" s="22">
         <v>-1</v>
@@ -4591,7 +4591,7 @@
         <v>-1</v>
       </c>
       <c r="AF41" s="22">
-        <v>97</v>
+        <v>-1</v>
       </c>
       <c r="AG41" s="22">
         <v>-1</v>
@@ -4883,10 +4883,10 @@
         <v>-1</v>
       </c>
       <c r="AJ43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL43" s="22">
         <v>-1</v>
@@ -4895,10 +4895,10 @@
         <v>-1</v>
       </c>
       <c r="AN43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP43" s="22">
         <v>-1</v>
@@ -4907,10 +4907,10 @@
         <v>-1</v>
       </c>
       <c r="AR43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS43" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT43" s="22">
         <v>-1</v>
@@ -5166,7 +5166,7 @@
         <v>-1</v>
       </c>
       <c r="AK45" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AL45" s="22">
         <v>-1</v>
@@ -5181,7 +5181,7 @@
         <v>-1</v>
       </c>
       <c r="AP45" s="22">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AQ45" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8036D-096D-4BC6-9C7D-59671AFDED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A17556-CA13-4576-BC51-FAA56EA30F48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1323,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AT46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1579,7 +1579,7 @@
         <v>-2</v>
       </c>
       <c r="V20" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W20" s="22">
         <v>-2</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1726,7 +1726,7 @@
         <v>-2</v>
       </c>
       <c r="V21" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W21" s="22">
         <v>-2</v>
@@ -1873,7 +1873,7 @@
         <v>-2</v>
       </c>
       <c r="V22" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W22" s="22">
         <v>-2</v>
@@ -1924,7 +1924,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -1972,7 +1972,7 @@
         <v>-2</v>
       </c>
       <c r="F23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="22">
         <v>-2</v>
@@ -1990,7 +1990,7 @@
         <v>-2</v>
       </c>
       <c r="L23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="22">
         <v>-2</v>
@@ -2002,10 +2002,10 @@
         <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2020,7 +2020,7 @@
         <v>-2</v>
       </c>
       <c r="V23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W23" s="22">
         <v>-2</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="22">
         <v>-2</v>
@@ -2122,31 +2122,31 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L24" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="M24" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O24" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2167,7 +2167,7 @@
         <v>-2</v>
       </c>
       <c r="V24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W24" s="22">
         <v>-2</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2305,7 +2305,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2314,7 +2314,7 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W25" s="22">
         <v>-2</v>
@@ -2365,13 +2365,13 @@
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2452,7 +2452,7 @@
         <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2461,7 +2461,7 @@
         <v>-2</v>
       </c>
       <c r="V26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W26" s="22">
         <v>-2</v>
@@ -2491,7 +2491,7 @@
         <v>-2</v>
       </c>
       <c r="AF26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG26" s="22">
         <v>-2</v>
@@ -2524,7 +2524,7 @@
         <v>-2</v>
       </c>
       <c r="AQ26" s="22">
-        <v>97</v>
+        <v>-2</v>
       </c>
       <c r="AR26" s="22">
         <v>-2</v>
@@ -2586,7 +2586,7 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="T27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V27" s="22">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AF27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG27" s="22">
         <v>-2</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="U28" s="22">
         <v>-2</v>
@@ -2759,61 +2759,61 @@
         <v>0</v>
       </c>
       <c r="AB28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AC28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AD28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="AG28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2893,19 +2893,19 @@
         <v>0</v>
       </c>
       <c r="Z29" s="22">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
       </c>
       <c r="AD29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AE29" s="22">
         <v>-2</v>
@@ -2917,7 +2917,7 @@
         <v>-2</v>
       </c>
       <c r="AH29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AI29" s="22">
         <v>-2</v>
@@ -2929,10 +2929,10 @@
         <v>-2</v>
       </c>
       <c r="AL29" s="22">
-        <v>13</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AN29" s="22">
         <v>-2</v>
@@ -2944,7 +2944,7 @@
         <v>-2</v>
       </c>
       <c r="AQ29" s="22">
-        <v>44</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="22">
         <v>-2</v>
@@ -2991,7 +2991,7 @@
         <v>-2</v>
       </c>
       <c r="L30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M30" s="22">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P30" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R30" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T30" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="U30" s="22">
         <v>-2</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3042,7 +3042,7 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="22">
         <v>-2</v>
@@ -3128,31 +3128,31 @@
         <v>-2</v>
       </c>
       <c r="K31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3182,10 +3182,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="AD31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3203,7 +3203,7 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
@@ -3215,7 +3215,7 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3227,7 +3227,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3262,55 +3262,55 @@
         <v>-2</v>
       </c>
       <c r="I32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
       </c>
       <c r="K32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M32" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N32" s="22">
         <v>-2</v>
       </c>
       <c r="O32" s="22">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="P32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="R32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="S32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="T32" s="22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="U32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V32" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z32" s="22">
         <v>-2</v>
@@ -3325,49 +3325,49 @@
         <v>-2</v>
       </c>
       <c r="AD32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AE32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AK32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="22">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AM32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="AO32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AQ32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AR32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="22">
         <v>-2</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="22">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N33" s="22">
         <v>-2</v>
@@ -3423,46 +3423,46 @@
         <v>-2</v>
       </c>
       <c r="P33" s="22">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="Q33" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="R33" s="22">
         <v>-2</v>
       </c>
       <c r="S33" s="22">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="T33" s="22">
-        <v>-2</v>
+        <v>33</v>
       </c>
       <c r="U33" s="22">
         <v>-2</v>
       </c>
       <c r="V33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W33" s="22">
+        <v>33</v>
+      </c>
+      <c r="X33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>12</v>
+      </c>
+      <c r="AA33" s="22">
         <v>11</v>
       </c>
-      <c r="W33" s="22">
-        <v>1</v>
-      </c>
-      <c r="X33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="22">
-        <v>0</v>
-      </c>
       <c r="AB33" s="22">
         <v>0</v>
       </c>
       <c r="AC33" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="22">
         <v>0</v>
@@ -3474,46 +3474,46 @@
         <v>0</v>
       </c>
       <c r="AG33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="22">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="22">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3539,49 +3539,49 @@
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="22">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="L34" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="22">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="22">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="P34" s="22">
         <v>-1</v>
       </c>
       <c r="Q34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="R34" s="22">
         <v>-1</v>
       </c>
       <c r="S34" s="22">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="T34" s="22">
         <v>-1</v>
       </c>
       <c r="U34" s="22">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="V34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W34" s="22">
         <v>-1</v>
@@ -3596,13 +3596,13 @@
         <v>-1</v>
       </c>
       <c r="AA34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="22">
         <v>-1</v>
       </c>
       <c r="AC34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="22">
         <v>-1</v>
@@ -3614,46 +3614,46 @@
         <v>-1</v>
       </c>
       <c r="AG34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="22">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AM34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AN34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="22">
-        <v>44</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3688,13 +3688,13 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="22">
         <v>-1</v>
@@ -3703,7 +3703,7 @@
         <v>-1</v>
       </c>
       <c r="P35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="22">
         <v>-1</v>
@@ -3721,7 +3721,7 @@
         <v>-1</v>
       </c>
       <c r="V35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="22">
         <v>-1</v>
@@ -3733,10 +3733,10 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="22">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AA35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="22">
         <v>-1</v>
@@ -3769,31 +3769,31 @@
         <v>-1</v>
       </c>
       <c r="AL35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3831,16 +3831,16 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M36" s="22">
         <v>0</v>
       </c>
       <c r="N36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P36" s="22">
         <v>0</v>
@@ -3849,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="R36" s="22">
+        <v>0</v>
+      </c>
+      <c r="S36" s="22">
         <v>11</v>
       </c>
-      <c r="S36" s="22">
-        <v>33</v>
-      </c>
       <c r="T36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="U36" s="22">
         <v>-1</v>
       </c>
       <c r="V36" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W36" s="22">
         <v>-1</v>
       </c>
       <c r="X36" s="22">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="22">
         <v>-1</v>
       </c>
       <c r="Z36" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="22">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>-1</v>
       </c>
       <c r="AH36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="22">
         <v>-1</v>
@@ -3909,31 +3909,31 @@
         <v>-1</v>
       </c>
       <c r="AL36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3989,10 +3989,10 @@
         <v>-1</v>
       </c>
       <c r="R37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" s="22">
         <v>-1</v>
@@ -4001,7 +4001,7 @@
         <v>-1</v>
       </c>
       <c r="V37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="22">
         <v>-1</v>
@@ -4010,13 +4010,13 @@
         <v>-1</v>
       </c>
       <c r="Y37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
@@ -4049,31 +4049,31 @@
         <v>-1</v>
       </c>
       <c r="AL37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4129,22 +4129,22 @@
         <v>-1</v>
       </c>
       <c r="R38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="22">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="U38" s="22">
         <v>-1</v>
       </c>
       <c r="V38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="Z38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4165,10 +4165,10 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="22">
         <v>-1</v>
@@ -4180,40 +4180,40 @@
         <v>-1</v>
       </c>
       <c r="AI38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="22">
         <v>0</v>
       </c>
       <c r="AM38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="22">
         <v>0</v>
       </c>
       <c r="AO38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4269,25 +4269,25 @@
         <v>-1</v>
       </c>
       <c r="R39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
@@ -4317,10 +4317,10 @@
         <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="22">
         <v>-1</v>
@@ -4341,7 +4341,7 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="22">
         <v>-1</v>
@@ -4484,7 +4484,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4650,13 +4650,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -4752,13 +4752,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -4793,7 +4793,7 @@
         <v>-1</v>
       </c>
       <c r="F43" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="G43" s="22">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
+++ b/data/GAMEDATA/STAGE/StageEditor1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A17556-CA13-4576-BC51-FAA56EA30F48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D3C37-4761-4B13-8910-F477C565022B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -1323,8 +1323,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="L12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO43" sqref="AO43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$48,0)</f>
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1843,10 +1843,10 @@
         <v>-2</v>
       </c>
       <c r="L22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="22">
         <v>-2</v>
@@ -1855,13 +1855,13 @@
         <v>-2</v>
       </c>
       <c r="P22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="22">
         <v>-2</v>
@@ -1924,7 +1924,7 @@
         <v>-2</v>
       </c>
       <c r="AM22" s="22">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AN22" s="22">
         <v>-2</v>
@@ -1972,7 +1972,7 @@
         <v>-2</v>
       </c>
       <c r="F23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="22">
         <v>-2</v>
@@ -1990,7 +1990,7 @@
         <v>-2</v>
       </c>
       <c r="L23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M23" s="22">
         <v>-2</v>
@@ -2002,10 +2002,10 @@
         <v>-2</v>
       </c>
       <c r="P23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q23" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23" s="22">
         <v>-2</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C24" s="22">
         <v>-2</v>
@@ -2122,31 +2122,31 @@
         <v>-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="L24" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="M24" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="O24" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="22">
         <v>-2</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$20:$AT$46,44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2305,7 +2305,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T25" s="22">
         <v>-2</v>
@@ -2314,10 +2314,10 @@
         <v>-2</v>
       </c>
       <c r="V25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X25" s="22">
         <v>-2</v>
@@ -2350,28 +2350,28 @@
         <v>-2</v>
       </c>
       <c r="AH25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="22">
         <v>-2</v>
       </c>
       <c r="AM25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO25" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP25" s="22">
         <v>-2</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="AY25">
         <f>SUM(AY20:AY24)</f>
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2452,7 +2452,7 @@
         <v>-2</v>
       </c>
       <c r="S26" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T26" s="22">
         <v>-2</v>
@@ -2586,13 +2586,13 @@
         <v>-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="22">
         <v>-2</v>
       </c>
       <c r="S27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="22">
         <v>-2</v>
@@ -2601,7 +2601,7 @@
         <v>-2</v>
       </c>
       <c r="V27" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W27" s="22">
         <v>-2</v>
@@ -2658,10 +2658,10 @@
         <v>-2</v>
       </c>
       <c r="AO27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="22">
         <v>-2</v>
@@ -2726,13 +2726,13 @@
         <v>-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="22">
         <v>-2</v>
       </c>
       <c r="S28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T28" s="22">
         <v>-2</v>
@@ -2741,7 +2741,7 @@
         <v>-2</v>
       </c>
       <c r="V28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W28" s="22">
         <v>-2</v>
@@ -2750,13 +2750,13 @@
         <v>-2</v>
       </c>
       <c r="Y28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA28" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB28" s="22">
         <v>-2</v>
@@ -2860,19 +2860,19 @@
         <v>-2</v>
       </c>
       <c r="O29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="22">
         <v>-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="22">
         <v>-2</v>
       </c>
       <c r="S29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T29" s="22">
         <v>-2</v>
@@ -2881,7 +2881,7 @@
         <v>-2</v>
       </c>
       <c r="V29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W29" s="22">
         <v>-2</v>
@@ -2890,16 +2890,16 @@
         <v>-2</v>
       </c>
       <c r="Y29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z29" s="22">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AA29" s="22">
         <v>-2</v>
       </c>
       <c r="AB29" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC29" s="22">
         <v>-2</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="N30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" s="22">
         <v>-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R30" s="22">
         <v>-2</v>
       </c>
       <c r="S30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="22">
         <v>-2</v>
@@ -3021,7 +3021,7 @@
         <v>-2</v>
       </c>
       <c r="V30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W30" s="22">
         <v>-2</v>
@@ -3030,10 +3030,10 @@
         <v>-2</v>
       </c>
       <c r="Y30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z30" s="22">
-        <v>33</v>
+        <v>-2</v>
       </c>
       <c r="AA30" s="22">
         <v>-2</v>
@@ -3042,7 +3042,7 @@
         <v>-2</v>
       </c>
       <c r="AC30" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="22">
         <v>-2</v>
@@ -3122,7 +3122,7 @@
         <v>-2</v>
       </c>
       <c r="I31" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="22">
         <v>-2</v>
@@ -3134,25 +3134,25 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N31" s="22">
         <v>-2</v>
       </c>
       <c r="O31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="22">
         <v>-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="22">
         <v>-2</v>
       </c>
       <c r="S31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="22">
         <v>-2</v>
@@ -3161,7 +3161,7 @@
         <v>-2</v>
       </c>
       <c r="V31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W31" s="22">
         <v>-2</v>
@@ -3170,7 +3170,7 @@
         <v>-2</v>
       </c>
       <c r="Y31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="22">
         <v>-2</v>
@@ -3182,10 +3182,10 @@
         <v>-2</v>
       </c>
       <c r="AC31" s="22">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="22">
         <v>-2</v>
@@ -3203,7 +3203,7 @@
         <v>-2</v>
       </c>
       <c r="AJ31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK31" s="22">
         <v>-2</v>
@@ -3215,7 +3215,7 @@
         <v>-2</v>
       </c>
       <c r="AN31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO31" s="22">
         <v>-2</v>
@@ -3227,7 +3227,7 @@
         <v>-2</v>
       </c>
       <c r="AR31" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS31" s="22">
         <v>-2</v>
@@ -3259,10 +3259,10 @@
         <v>-2</v>
       </c>
       <c r="H32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="22">
         <v>-2</v>
@@ -3274,34 +3274,34 @@
         <v>0</v>
       </c>
       <c r="M32" s="22">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="N32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P32" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>0</v>
+      </c>
+      <c r="R32" s="22">
+        <v>0</v>
+      </c>
+      <c r="S32" s="22">
         <v>2</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>11</v>
-      </c>
-      <c r="R32" s="22">
-        <v>2</v>
-      </c>
-      <c r="S32" s="22">
-        <v>11</v>
       </c>
       <c r="T32" s="22">
         <v>2</v>
       </c>
       <c r="U32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W32" s="22">
         <v>2</v>
@@ -3310,31 +3310,31 @@
         <v>2</v>
       </c>
       <c r="Y32" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AC32" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AE32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF32" s="22">
         <v>0</v>
       </c>
       <c r="AG32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="22">
         <v>2</v>
@@ -3343,19 +3343,19 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="22">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="22">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="22">
         <v>2</v>
@@ -3367,13 +3367,13 @@
         <v>2</v>
       </c>
       <c r="AR32" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="22">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3384,37 +3384,37 @@
         <v>0</v>
       </c>
       <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
         <v>1</v>
       </c>
-      <c r="D33" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="22">
-        <v>0</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
       <c r="K33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L33" s="22">
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N33" s="22">
         <v>-2</v>
@@ -3423,97 +3423,97 @@
         <v>-2</v>
       </c>
       <c r="P33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>44</v>
+      </c>
+      <c r="R33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U33" s="22">
+        <v>44</v>
+      </c>
+      <c r="V33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y33" s="22">
         <v>12</v>
       </c>
-      <c r="Q33" s="22">
-        <v>33</v>
-      </c>
-      <c r="R33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="S33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="T33" s="22">
-        <v>33</v>
-      </c>
-      <c r="U33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="V33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="W33" s="22">
-        <v>33</v>
-      </c>
-      <c r="X33" s="22">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>-2</v>
-      </c>
       <c r="Z33" s="22">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="AA33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AD33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AF33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AH33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AI33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AJ33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AK33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AL33" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AN33" s="22">
+        <v>31</v>
+      </c>
+      <c r="AO33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AP33" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AQ33" s="22">
         <v>11</v>
       </c>
-      <c r="AB33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="22">
-        <v>0</v>
-      </c>
       <c r="AR33" s="22">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT33" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3539,94 +3539,94 @@
         <v>-1</v>
       </c>
       <c r="H34" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="N34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="P34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="T34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="U34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="V34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="W34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="X34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y34" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Z34" s="22">
         <v>2</v>
       </c>
-      <c r="J34" s="22">
+      <c r="AA34" s="22">
         <v>2</v>
       </c>
-      <c r="K34" s="22">
-        <v>11</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="AB34" s="22">
         <v>2</v>
       </c>
-      <c r="M34" s="22">
-        <v>11</v>
-      </c>
-      <c r="N34" s="22">
+      <c r="AC34" s="22">
         <v>2</v>
       </c>
-      <c r="O34" s="22">
+      <c r="AD34" s="22">
         <v>2</v>
       </c>
-      <c r="P34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="X34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AA34" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AC34" s="22">
-        <v>-1</v>
-      </c>
-      <c r="AD34" s="22">
-        <v>-1</v>
-      </c>
       <c r="AE34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AG34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="22">
         <v>-1</v>
@@ -3635,25 +3635,25 @@
         <v>-1</v>
       </c>
       <c r="AN34" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AP34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AQ34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AR34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AT34" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3688,55 +3688,55 @@
         <v>-1</v>
       </c>
       <c r="K35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P35" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X35" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="22">
         <v>-1</v>
@@ -3751,10 +3751,10 @@
         <v>-1</v>
       </c>
       <c r="AF35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="22">
         <v>-1</v>
@@ -3831,58 +3831,58 @@
         <v>-1</v>
       </c>
       <c r="L36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R36" s="22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S36" s="22">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="T36" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="U36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V36" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="W36" s="22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X36" s="22">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="Y36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="22">
         <v>-1</v>
       </c>
       <c r="AA36" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="22">
         <v>-1</v>
@@ -3971,52 +3971,52 @@
         <v>-1</v>
       </c>
       <c r="L37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="22">
         <v>0</v>
       </c>
       <c r="T37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <v>-1</v>
       </c>
       <c r="AA37" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="22">
         <v>-1</v>
@@ -4132,10 +4132,10 @@
         <v>-1</v>
       </c>
       <c r="S38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" s="22">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="U38" s="22">
         <v>-1</v>
@@ -4144,19 +4144,19 @@
         <v>-1</v>
       </c>
       <c r="W38" s="22">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="X38" s="22">
         <v>-1</v>
       </c>
       <c r="Y38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="22">
         <v>-1</v>
@@ -4165,10 +4165,10 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38" s="22">
         <v>-1</v>
@@ -4186,16 +4186,16 @@
         <v>-1</v>
       </c>
       <c r="AK38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="22">
         <v>-1</v>
       </c>
       <c r="AN38" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="22">
         <v>-1</v>
@@ -4227,16 +4227,16 @@
         <v>-1</v>
       </c>
       <c r="D39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="22">
         <v>-1</v>
@@ -4272,22 +4272,22 @@
         <v>-1</v>
       </c>
       <c r="S39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X39" s="22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39" s="22">
         <v>-1</v>
@@ -4317,10 +4317,10 @@
         <v>-1</v>
       </c>
       <c r="AH39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ39" s="22">
         <v>-1</v>
@@ -4341,7 +4341,7 @@
         <v>-1</v>
       </c>
       <c r="AP39" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ39" s="22">
         <v>-1</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="22">
         <v>-1</v>
@@ -4394,10 +4394,10 @@
         <v>-1</v>
       </c>
       <c r="M40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="22">
         <v>-1</v>
@@ -4409,10 +4409,10 @@
         <v>-1</v>
       </c>
       <c r="R40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="22">
         <v>-1</v>
@@ -4424,10 +4424,10 @@
         <v>-1</v>
       </c>
       <c r="W40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="22">
         <v>-1</v>
@@ -4439,10 +4439,10 @@
         <v>-1</v>
       </c>
       <c r="AB40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="22">
         <v>-1</v>
@@ -4451,10 +4451,10 @@
         <v>-1</v>
       </c>
       <c r="AF40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="22">
         <v>-1</v>
@@ -4484,7 +4484,7 @@
         <v>-1</v>
       </c>
       <c r="AQ40" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR40" s="22">
         <v>-1</v>
@@ -4501,7 +4501,7 @@
         <v>-1</v>
       </c>
       <c r="B41" s="22">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="C41" s="22">
         <v>-1</v>
@@ -4615,19 +4615,19 @@
         <v>-1</v>
       </c>
       <c r="AN41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="22">
         <v>-1</v>
@@ -4650,13 +4650,13 @@
         <v>-1</v>
       </c>
       <c r="E42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="22">
         <v>-1</v>
@@ -4752,13 +4752,13 @@
         <v>-1</v>
       </c>
       <c r="AM42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN42" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO42" s="22">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP42" s="22">
         <v>-1</v>
@@ -4778,13 +4778,13 @@
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="22">
         <v>-1</v>
@@ -4793,13 +4793,13 @@
         <v>-1</v>
       </c>
       <c r="F43" s="22">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="G43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="22">
         <v>-1</v>
@@ -4957,7 +4957,7 @@
         <v>-1</v>
       </c>
       <c r="N44" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O44" s="22">
         <v>-1</v>
@@ -4975,7 +4975,7 @@
         <v>-1</v>
       </c>
       <c r="T44" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U44" s="22">
         <v>-1</v>
@@ -4993,7 +4993,7 @@
         <v>-1</v>
       </c>
       <c r="Z44" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA44" s="22">
         <v>-1</v>
@@ -5011,7 +5011,7 @@
         <v>-1</v>
       </c>
       <c r="AF44" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AG44" s="22">
         <v>-1</v>
@@ -5073,7 +5073,7 @@
         <v>-1</v>
       </c>
       <c r="F45" s="22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="22">
         <v>-1</v>
